--- a/BackTest/2019-11-02 BackTest DVP.xlsx
+++ b/BackTest/2019-11-02 BackTest DVP.xlsx
@@ -991,7 +991,9 @@
       <c r="J12" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.666666666666761</v>
+      </c>
       <c r="L12" t="n">
         <v>18</v>
       </c>
@@ -1046,7 +1048,9 @@
       <c r="J13" t="n">
         <v>1.900000000000002</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>6.666666666666508</v>
+      </c>
       <c r="L13" t="n">
         <v>17.99</v>
       </c>
@@ -1101,7 +1105,9 @@
       <c r="J14" t="n">
         <v>2.000000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>18.01</v>
       </c>
@@ -1156,7 +1162,9 @@
       <c r="J15" t="n">
         <v>2.000000000000004</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>18.01</v>
       </c>
@@ -1211,7 +1219,9 @@
       <c r="J16" t="n">
         <v>2.000000000000004</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>7.692307692307776</v>
+      </c>
       <c r="L16" t="n">
         <v>18.01</v>
       </c>
@@ -1266,7 +1276,9 @@
       <c r="J17" t="n">
         <v>2.100000000000005</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>18.02999999999999</v>
       </c>
@@ -1321,7 +1333,9 @@
       <c r="J18" t="n">
         <v>2.300000000000004</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>27.27272727272722</v>
+      </c>
       <c r="L18" t="n">
         <v>18.09</v>
       </c>
@@ -1376,7 +1390,9 @@
       <c r="J19" t="n">
         <v>2.300000000000004</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>18.12</v>
       </c>
@@ -1427,7 +1443,9 @@
       <c r="J20" t="n">
         <v>2.400000000000002</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>24.99999999999989</v>
+      </c>
       <c r="L20" t="n">
         <v>18.13</v>
       </c>
@@ -1478,7 +1496,9 @@
       <c r="J21" t="n">
         <v>2.5</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>24.99999999999989</v>
+      </c>
       <c r="L21" t="n">
         <v>18.14</v>
       </c>
@@ -1531,7 +1551,9 @@
       <c r="J22" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>42.857142857143</v>
+      </c>
       <c r="L22" t="n">
         <v>18.15</v>
       </c>
@@ -1579,7 +1601,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K23" t="n">
-        <v>12.00000000000001</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L23" t="n">
         <v>18.19</v>
@@ -1628,7 +1650,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K24" t="n">
-        <v>16.66666666666657</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L24" t="n">
         <v>18.21</v>
@@ -1677,7 +1699,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K25" t="n">
-        <v>9.090909090909033</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L25" t="n">
         <v>18.23</v>
@@ -1726,7 +1748,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>4.347826086956576</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>18.24</v>
@@ -1775,7 +1797,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>9.090909090909207</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>18.24</v>
@@ -1824,7 +1846,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K28" t="n">
-        <v>20.00000000000007</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>18.22</v>
@@ -1873,7 +1895,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>5.882352941176544</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L29" t="n">
         <v>18.2</v>
@@ -1922,7 +1944,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>5.882352941176348</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L30" t="n">
         <v>18.2</v>
@@ -1971,7 +1993,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>12.49999999999997</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>18.20999999999999</v>
@@ -2022,7 +2044,7 @@
         <v>3.299999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>18.22</v>
@@ -2073,7 +2095,7 @@
         <v>3.499999999999996</v>
       </c>
       <c r="K33" t="n">
-        <v>12.50000000000022</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L33" t="n">
         <v>18.2</v>
@@ -2124,7 +2146,7 @@
         <v>3.699999999999996</v>
       </c>
       <c r="K34" t="n">
-        <v>17.64705882352953</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L34" t="n">
         <v>18.21</v>
@@ -2175,7 +2197,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>11.11111111111111</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L35" t="n">
         <v>18.21</v>
@@ -2226,7 +2248,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>15.78947368421061</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>18.23</v>
@@ -2277,7 +2299,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
         <v>18.25</v>
@@ -2328,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.882352941176569</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L38" t="n">
         <v>18.26</v>
@@ -2379,7 +2401,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L39" t="n">
         <v>18.28</v>
@@ -2430,7 +2452,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-15.78947368421039</v>
+        <v>-27.27272727272697</v>
       </c>
       <c r="L40" t="n">
         <v>18.25</v>
@@ -2532,7 +2554,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L42" t="n">
         <v>18.23</v>
@@ -2583,7 +2605,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>4.761904761904665</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L43" t="n">
         <v>18.26</v>
@@ -2634,7 +2656,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>4.761904761904842</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L44" t="n">
         <v>18.26</v>
@@ -2685,7 +2707,7 @@
         <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L45" t="n">
         <v>18.26</v>
@@ -2736,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>4.761904761904665</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L46" t="n">
         <v>18.25</v>
@@ -2787,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>4.761904761904665</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>18.23999999999999</v>
@@ -2838,7 +2860,7 @@
         <v>5.099999999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L48" t="n">
         <v>18.23</v>
@@ -2940,7 +2962,7 @@
         <v>5.099999999999998</v>
       </c>
       <c r="K50" t="n">
-        <v>-15.78947368421039</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>18.20999999999999</v>
@@ -2991,7 +3013,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>18.19999999999999</v>
@@ -3042,7 +3064,7 @@
         <v>5.299999999999994</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.999999999999982</v>
+        <v>-60.00000000000028</v>
       </c>
       <c r="L52" t="n">
         <v>18.18999999999999</v>
@@ -3093,7 +3115,7 @@
         <v>5.299999999999994</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L53" t="n">
         <v>18.15999999999999</v>
@@ -3144,7 +3166,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K54" t="n">
-        <v>-5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>18.14999999999999</v>
@@ -3246,7 +3268,7 @@
         <v>5.499999999999989</v>
       </c>
       <c r="K56" t="n">
-        <v>-12.50000000000003</v>
+        <v>-20</v>
       </c>
       <c r="L56" t="n">
         <v>18.13999999999999</v>
@@ -3297,7 +3319,7 @@
         <v>5.499999999999989</v>
       </c>
       <c r="K57" t="n">
-        <v>-12.50000000000003</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>18.12999999999999</v>
@@ -3348,7 +3370,7 @@
         <v>5.499999999999989</v>
       </c>
       <c r="K58" t="n">
-        <v>-6.666666666666572</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>18.12999999999999</v>
@@ -3399,7 +3421,7 @@
         <v>5.699999999999989</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L59" t="n">
         <v>18.14999999999999</v>
@@ -3450,7 +3472,7 @@
         <v>5.899999999999988</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L60" t="n">
         <v>18.14999999999999</v>
@@ -3501,7 +3523,7 @@
         <v>6.099999999999987</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L61" t="n">
         <v>18.15999999999999</v>
@@ -3552,7 +3574,7 @@
         <v>6.199999999999989</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L62" t="n">
         <v>18.16999999999999</v>
@@ -3603,7 +3625,7 @@
         <v>6.199999999999989</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>18.17999999999999</v>
@@ -3654,7 +3676,7 @@
         <v>6.299999999999986</v>
       </c>
       <c r="K64" t="n">
-        <v>-14.28571428571436</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L64" t="n">
         <v>18.16999999999999</v>
@@ -3705,7 +3727,7 @@
         <v>6.399999999999988</v>
       </c>
       <c r="K65" t="n">
-        <v>-14.28571428571436</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L65" t="n">
         <v>18.15</v>
@@ -3756,7 +3778,7 @@
         <v>6.499999999999989</v>
       </c>
       <c r="K66" t="n">
-        <v>-20.00000000000019</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L66" t="n">
         <v>18.13</v>
@@ -3807,7 +3829,7 @@
         <v>6.499999999999989</v>
       </c>
       <c r="K67" t="n">
-        <v>-20.00000000000019</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L67" t="n">
         <v>18.11</v>
@@ -3858,7 +3880,7 @@
         <v>6.599999999999987</v>
       </c>
       <c r="K68" t="n">
-        <v>-20.00000000000019</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L68" t="n">
         <v>18.08</v>
@@ -3909,7 +3931,7 @@
         <v>6.599999999999987</v>
       </c>
       <c r="K69" t="n">
-        <v>-20.00000000000019</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L69" t="n">
         <v>18.03</v>
@@ -3960,7 +3982,7 @@
         <v>6.799999999999986</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.882352941176594</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L70" t="n">
         <v>18.02</v>
@@ -4011,7 +4033,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K71" t="n">
-        <v>-22.22222222222226</v>
+        <v>-50</v>
       </c>
       <c r="L71" t="n">
         <v>17.97</v>
@@ -4062,7 +4084,7 @@
         <v>7.099999999999984</v>
       </c>
       <c r="K72" t="n">
-        <v>-11.11111111111133</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L72" t="n">
         <v>17.94</v>
@@ -4113,7 +4135,7 @@
         <v>7.099999999999984</v>
       </c>
       <c r="K73" t="n">
-        <v>-11.11111111111133</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L73" t="n">
         <v>17.91</v>
@@ -4164,7 +4186,7 @@
         <v>7.199999999999982</v>
       </c>
       <c r="K74" t="n">
-        <v>-22.22222222222226</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L74" t="n">
         <v>17.88</v>
@@ -4215,7 +4237,7 @@
         <v>7.299999999999979</v>
       </c>
       <c r="K75" t="n">
-        <v>-15.78947368421066</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>17.87</v>
@@ -4266,7 +4288,7 @@
         <v>7.399999999999981</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.26315789473694</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L76" t="n">
         <v>17.88</v>
@@ -4317,7 +4339,7 @@
         <v>7.399999999999981</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.26315789473694</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L77" t="n">
         <v>17.89</v>
@@ -4368,7 +4390,7 @@
         <v>7.499999999999982</v>
       </c>
       <c r="K78" t="n">
-        <v>-10.00000000000018</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L78" t="n">
         <v>17.9</v>
@@ -4419,7 +4441,7 @@
         <v>7.499999999999982</v>
       </c>
       <c r="K79" t="n">
-        <v>-22.22222222222242</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L79" t="n">
         <v>17.91</v>
@@ -4470,7 +4492,7 @@
         <v>7.599999999999984</v>
       </c>
       <c r="K80" t="n">
-        <v>-5.882352941176569</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>17.91</v>
@@ -4521,7 +4543,7 @@
         <v>7.699999999999985</v>
       </c>
       <c r="K81" t="n">
-        <v>-25.00000000000017</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>17.92</v>
@@ -4572,7 +4594,7 @@
         <v>7.699999999999985</v>
       </c>
       <c r="K82" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>17.92</v>
@@ -4623,7 +4645,7 @@
         <v>7.799999999999983</v>
       </c>
       <c r="K83" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>17.91</v>
@@ -4674,7 +4696,7 @@
         <v>7.899999999999981</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>17.92</v>
@@ -4725,7 +4747,7 @@
         <v>7.899999999999981</v>
       </c>
       <c r="K85" t="n">
-        <v>-6.666666666666793</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L85" t="n">
         <v>17.92</v>
@@ -4776,7 +4798,7 @@
         <v>7.899999999999981</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L86" t="n">
         <v>17.91</v>
@@ -4827,7 +4849,7 @@
         <v>7.999999999999982</v>
       </c>
       <c r="K87" t="n">
-        <v>6.666666666666793</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L87" t="n">
         <v>17.91</v>
@@ -4878,7 +4900,7 @@
         <v>8.099999999999984</v>
       </c>
       <c r="K88" t="n">
-        <v>6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>17.91</v>
@@ -4929,7 +4951,7 @@
         <v>8.099999999999984</v>
       </c>
       <c r="K89" t="n">
-        <v>6.66666666666654</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L89" t="n">
         <v>17.91</v>
@@ -4980,7 +5002,7 @@
         <v>8.099999999999984</v>
       </c>
       <c r="K90" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>17.9</v>
@@ -5031,7 +5053,7 @@
         <v>8.199999999999982</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L91" t="n">
         <v>17.89</v>
@@ -5082,7 +5104,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K92" t="n">
-        <v>7.692307692307819</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>17.9</v>
@@ -5133,7 +5155,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K93" t="n">
-        <v>7.692307692307819</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L93" t="n">
         <v>17.92</v>
@@ -5184,7 +5206,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K94" t="n">
-        <v>16.66666666666662</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L94" t="n">
         <v>17.93</v>
@@ -5235,7 +5257,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K95" t="n">
-        <v>9.090909090909207</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L95" t="n">
         <v>17.94</v>
@@ -5286,7 +5308,7 @@
         <v>8.499999999999982</v>
       </c>
       <c r="K96" t="n">
-        <v>9.090909090909207</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L96" t="n">
         <v>17.96</v>
@@ -5337,7 +5359,7 @@
         <v>8.59999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>16.66666666666662</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L97" t="n">
         <v>17.98</v>
@@ -5388,7 +5410,7 @@
         <v>8.59999999999998</v>
       </c>
       <c r="K98" t="n">
-        <v>27.27272727272739</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L98" t="n">
         <v>18.01</v>
@@ -5439,7 +5461,7 @@
         <v>8.59999999999998</v>
       </c>
       <c r="K99" t="n">
-        <v>27.27272727272739</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L99" t="n">
         <v>18.04</v>
@@ -5490,7 +5512,7 @@
         <v>8.59999999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>18.06999999999999</v>
@@ -5541,7 +5563,7 @@
         <v>8.699999999999982</v>
       </c>
       <c r="K101" t="n">
-        <v>40.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>18.11999999999999</v>
@@ -5592,7 +5614,7 @@
         <v>8.799999999999983</v>
       </c>
       <c r="K102" t="n">
-        <v>27.27272727272739</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L102" t="n">
         <v>18.13999999999999</v>
@@ -5643,7 +5665,7 @@
         <v>8.799999999999983</v>
       </c>
       <c r="K103" t="n">
-        <v>39.99999999999986</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L103" t="n">
         <v>18.15999999999999</v>
@@ -5745,7 +5767,7 @@
         <v>8.999999999999979</v>
       </c>
       <c r="K105" t="n">
-        <v>27.27272727272739</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L105" t="n">
         <v>18.18999999999999</v>
@@ -5796,7 +5818,7 @@
         <v>8.999999999999979</v>
       </c>
       <c r="K106" t="n">
-        <v>27.27272727272739</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>18.19999999999999</v>
@@ -5847,7 +5869,7 @@
         <v>9.099999999999977</v>
       </c>
       <c r="K107" t="n">
-        <v>9.090909090909268</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L107" t="n">
         <v>18.18999999999999</v>
@@ -5898,7 +5920,7 @@
         <v>9.199999999999974</v>
       </c>
       <c r="K108" t="n">
-        <v>27.27272727272756</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>18.18999999999999</v>
@@ -5949,7 +5971,7 @@
         <v>9.199999999999974</v>
       </c>
       <c r="K109" t="n">
-        <v>27.27272727272756</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>18.18999999999999</v>
@@ -6000,7 +6022,7 @@
         <v>9.199999999999974</v>
       </c>
       <c r="K110" t="n">
-        <v>27.27272727272756</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L110" t="n">
         <v>18.18999999999999</v>
@@ -6051,7 +6073,7 @@
         <v>9.199999999999974</v>
       </c>
       <c r="K111" t="n">
-        <v>40.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>18.17999999999999</v>
@@ -6102,7 +6124,7 @@
         <v>9.199999999999974</v>
       </c>
       <c r="K112" t="n">
-        <v>25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>18.17999999999999</v>
@@ -6153,7 +6175,7 @@
         <v>9.199999999999974</v>
       </c>
       <c r="K113" t="n">
-        <v>25.00000000000011</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>18.17999999999999</v>
@@ -6204,7 +6226,7 @@
         <v>9.199999999999974</v>
       </c>
       <c r="K114" t="n">
-        <v>25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>18.18999999999999</v>
@@ -6255,7 +6277,7 @@
         <v>9.399999999999974</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L115" t="n">
         <v>18.16999999999999</v>
@@ -6306,7 +6328,7 @@
         <v>9.399999999999974</v>
       </c>
       <c r="K116" t="n">
-        <v>-11.11111111111137</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L116" t="n">
         <v>18.14999999999999</v>
@@ -6357,7 +6379,7 @@
         <v>9.399999999999974</v>
       </c>
       <c r="K117" t="n">
-        <v>-25.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L117" t="n">
         <v>18.13999999999999</v>
@@ -6408,7 +6430,7 @@
         <v>9.399999999999974</v>
       </c>
       <c r="K118" t="n">
-        <v>-25.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L118" t="n">
         <v>18.11999999999999</v>
@@ -6459,7 +6481,7 @@
         <v>9.499999999999975</v>
       </c>
       <c r="K119" t="n">
-        <v>-11.11111111111093</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L119" t="n">
         <v>18.10999999999999</v>
@@ -6510,7 +6532,7 @@
         <v>9.499999999999975</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.11111111111093</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L120" t="n">
         <v>18.09999999999999</v>
@@ -6561,7 +6583,7 @@
         <v>9.599999999999977</v>
       </c>
       <c r="K121" t="n">
-        <v>-33.3333333333336</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L121" t="n">
         <v>18.07999999999999</v>
@@ -6612,7 +6634,7 @@
         <v>9.699999999999978</v>
       </c>
       <c r="K122" t="n">
-        <v>-11.11111111111093</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L122" t="n">
         <v>18.06999999999999</v>
@@ -6663,7 +6685,7 @@
         <v>9.699999999999978</v>
       </c>
       <c r="K123" t="n">
-        <v>-11.11111111111093</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L123" t="n">
         <v>18.06</v>
@@ -6714,7 +6736,7 @@
         <v>9.799999999999979</v>
       </c>
       <c r="K124" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>18.04</v>
@@ -6765,7 +6787,7 @@
         <v>9.799999999999979</v>
       </c>
       <c r="K125" t="n">
-        <v>-24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>18.04</v>
@@ -6816,7 +6838,7 @@
         <v>9.799999999999979</v>
       </c>
       <c r="K126" t="n">
-        <v>-24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>18.04</v>
@@ -6867,7 +6889,7 @@
         <v>9.899999999999981</v>
       </c>
       <c r="K127" t="n">
-        <v>-25.00000000000022</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>18.02999999999999</v>
@@ -6918,7 +6940,7 @@
         <v>9.899999999999981</v>
       </c>
       <c r="K128" t="n">
-        <v>-42.85714285714256</v>
+        <v>-50</v>
       </c>
       <c r="L128" t="n">
         <v>18.02</v>
@@ -6969,7 +6991,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K129" t="n">
-        <v>-11.11111111111076</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>18.02</v>
@@ -7020,7 +7042,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K130" t="n">
-        <v>-11.11111111111076</v>
+        <v>20</v>
       </c>
       <c r="L130" t="n">
         <v>18.02</v>
@@ -7071,7 +7093,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L131" t="n">
         <v>18.04</v>
@@ -7122,7 +7144,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K132" t="n">
-        <v>-9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>18.04</v>
@@ -7173,7 +7195,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>-9.090909090908857</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L133" t="n">
         <v>18.04</v>
@@ -7224,7 +7246,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>-9.090909090908857</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L134" t="n">
         <v>18.04999999999999</v>
@@ -7275,7 +7297,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>11.1111111111112</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L135" t="n">
         <v>18.06</v>
@@ -7326,7 +7348,7 @@
         <v>10.49999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>27.27272727272722</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L136" t="n">
         <v>18.09</v>
@@ -7377,7 +7399,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K137" t="n">
-        <v>16.66666666666652</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L137" t="n">
         <v>18.11999999999999</v>
@@ -7428,7 +7450,7 @@
         <v>10.69999999999998</v>
       </c>
       <c r="K138" t="n">
-        <v>23.07692307692299</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>18.15999999999999</v>
@@ -7479,7 +7501,7 @@
         <v>10.69999999999998</v>
       </c>
       <c r="K139" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>18.18</v>
@@ -7530,7 +7552,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>23.07692307692279</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>18.21</v>
@@ -7581,7 +7603,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K141" t="n">
-        <v>23.07692307692312</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>18.22</v>
@@ -7632,7 +7654,7 @@
         <v>10.99999999999998</v>
       </c>
       <c r="K142" t="n">
-        <v>23.07692307692291</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L142" t="n">
         <v>18.25</v>
@@ -7683,7 +7705,7 @@
         <v>11.09999999999997</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L143" t="n">
         <v>18.27</v>
@@ -7734,7 +7756,7 @@
         <v>11.29999999999997</v>
       </c>
       <c r="K144" t="n">
-        <v>33.33333333333349</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L144" t="n">
         <v>18.31</v>
@@ -7785,7 +7807,7 @@
         <v>11.39999999999997</v>
       </c>
       <c r="K145" t="n">
-        <v>25</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L145" t="n">
         <v>18.34</v>
@@ -7836,7 +7858,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K146" t="n">
-        <v>29.41176470588243</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L146" t="n">
         <v>18.36</v>
@@ -7887,7 +7909,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K147" t="n">
-        <v>37.50000000000022</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L147" t="n">
         <v>18.39</v>
@@ -7938,7 +7960,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K148" t="n">
-        <v>44.44444444444464</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L148" t="n">
         <v>18.43</v>
@@ -7989,7 +8011,7 @@
         <v>11.79999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>41.17647058823544</v>
+        <v>40.00000000000036</v>
       </c>
       <c r="L149" t="n">
         <v>18.48</v>
@@ -8040,7 +8062,7 @@
         <v>11.89999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>33.33333333333333</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L150" t="n">
         <v>18.51</v>
@@ -8091,7 +8113,7 @@
         <v>11.99999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>33.33333333333346</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L151" t="n">
         <v>18.56</v>
@@ -8142,7 +8164,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>44.44444444444436</v>
+        <v>59.99999999999957</v>
       </c>
       <c r="L152" t="n">
         <v>18.61</v>
@@ -8193,7 +8215,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>44.44444444444436</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L153" t="n">
         <v>18.67</v>
@@ -8244,7 +8266,7 @@
         <v>12.19999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>47.36842105263154</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L154" t="n">
         <v>18.72</v>
@@ -8295,7 +8317,7 @@
         <v>12.19999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>47.36842105263154</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L155" t="n">
         <v>18.78</v>
@@ -8346,7 +8368,7 @@
         <v>12.29999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>33.3333333333332</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L156" t="n">
         <v>18.82</v>
@@ -8397,7 +8419,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K157" t="n">
-        <v>33.33333333333346</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L157" t="n">
         <v>18.85</v>
@@ -8448,7 +8470,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K158" t="n">
-        <v>29.41176470588243</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>18.86</v>
@@ -8499,7 +8521,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K159" t="n">
-        <v>22.22222222222218</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>18.85</v>
@@ -8550,7 +8572,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K160" t="n">
-        <v>17.64705882352946</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L160" t="n">
         <v>18.85</v>
@@ -8601,7 +8623,7 @@
         <v>12.69999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>33.3333333333332</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>18.86</v>
@@ -8652,7 +8674,7 @@
         <v>12.79999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>22.22222222222233</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L162" t="n">
         <v>18.85</v>
@@ -8703,7 +8725,7 @@
         <v>12.89999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>33.3333333333332</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L163" t="n">
         <v>18.85</v>
@@ -8754,7 +8776,7 @@
         <v>12.99999999999997</v>
       </c>
       <c r="K164" t="n">
-        <v>17.64705882352946</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L164" t="n">
         <v>18.83</v>
@@ -8805,7 +8827,7 @@
         <v>12.99999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>25.00000000000017</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L165" t="n">
         <v>18.81</v>
@@ -8856,7 +8878,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K166" t="n">
-        <v>25</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L166" t="n">
         <v>18.81</v>
@@ -8907,7 +8929,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K167" t="n">
-        <v>25</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L167" t="n">
         <v>18.82</v>
@@ -8958,7 +8980,7 @@
         <v>13.19999999999997</v>
       </c>
       <c r="K168" t="n">
-        <v>6.666666666666793</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L168" t="n">
         <v>18.82</v>
@@ -9009,7 +9031,7 @@
         <v>13.29999999999997</v>
       </c>
       <c r="K169" t="n">
-        <v>-6.666666666666793</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>18.82</v>
@@ -9060,7 +9082,7 @@
         <v>13.39999999999997</v>
       </c>
       <c r="K170" t="n">
-        <v>6.666666666666793</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L170" t="n">
         <v>18.83000000000001</v>
@@ -9111,7 +9133,7 @@
         <v>13.49999999999997</v>
       </c>
       <c r="K171" t="n">
-        <v>-6.666666666666793</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L171" t="n">
         <v>18.81</v>
@@ -9162,7 +9184,7 @@
         <v>13.59999999999997</v>
       </c>
       <c r="K172" t="n">
-        <v>-6.66666666666654</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L172" t="n">
         <v>18.81</v>
@@ -9213,7 +9235,7 @@
         <v>13.79999999999997</v>
       </c>
       <c r="K173" t="n">
-        <v>-17.64705882352929</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L173" t="n">
         <v>18.78</v>
@@ -9264,7 +9286,7 @@
         <v>13.79999999999997</v>
       </c>
       <c r="K174" t="n">
-        <v>-25</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L174" t="n">
         <v>18.76</v>
@@ -9315,7 +9337,7 @@
         <v>13.79999999999997</v>
       </c>
       <c r="K175" t="n">
-        <v>-25</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L175" t="n">
         <v>18.74</v>
@@ -9366,7 +9388,7 @@
         <v>13.79999999999997</v>
       </c>
       <c r="K176" t="n">
-        <v>-19.9999999999999</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L176" t="n">
         <v>18.71</v>
@@ -9417,7 +9439,7 @@
         <v>13.89999999999997</v>
       </c>
       <c r="K177" t="n">
-        <v>-6.666666666666793</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L177" t="n">
         <v>18.68999999999999</v>
@@ -9468,7 +9490,7 @@
         <v>13.89999999999997</v>
       </c>
       <c r="K178" t="n">
-        <v>-6.666666666666793</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>18.67999999999999</v>
@@ -9519,7 +9541,7 @@
         <v>13.89999999999997</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L179" t="n">
         <v>18.67999999999999</v>
@@ -9621,7 +9643,7 @@
         <v>13.99999999999997</v>
       </c>
       <c r="K181" t="n">
-        <v>-23.07692307692303</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L181" t="n">
         <v>18.65999999999999</v>
@@ -9672,7 +9694,7 @@
         <v>13.99999999999997</v>
       </c>
       <c r="K182" t="n">
-        <v>-16.66666666666671</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>18.63999999999999</v>
@@ -9723,7 +9745,7 @@
         <v>13.99999999999997</v>
       </c>
       <c r="K183" t="n">
-        <v>-27.27272727272715</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>18.63999999999999</v>
@@ -9774,7 +9796,7 @@
         <v>13.99999999999997</v>
       </c>
       <c r="K184" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>18.63999999999999</v>
@@ -9825,7 +9847,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K185" t="n">
-        <v>-9.090909090909268</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>18.64999999999999</v>
@@ -9876,7 +9898,7 @@
         <v>14.09999999999997</v>
       </c>
       <c r="K186" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>18.65999999999999</v>
@@ -9927,7 +9949,7 @@
         <v>14.19999999999996</v>
       </c>
       <c r="K187" t="n">
-        <v>-27.27272727272715</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>18.64999999999999</v>
@@ -9978,7 +10000,7 @@
         <v>14.39999999999996</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L188" t="n">
         <v>18.65999999999999</v>
@@ -10029,7 +10051,7 @@
         <v>14.49999999999996</v>
       </c>
       <c r="K189" t="n">
-        <v>16.66666666666671</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L189" t="n">
         <v>18.67999999999999</v>
@@ -10080,7 +10102,7 @@
         <v>14.49999999999996</v>
       </c>
       <c r="K190" t="n">
-        <v>9.090909090908973</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L190" t="n">
         <v>18.7</v>
@@ -10131,7 +10153,7 @@
         <v>14.49999999999996</v>
       </c>
       <c r="K191" t="n">
-        <v>20.00000000000014</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L191" t="n">
         <v>18.73</v>
@@ -10182,7 +10204,7 @@
         <v>14.49999999999996</v>
       </c>
       <c r="K192" t="n">
-        <v>11.11111111111102</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L192" t="n">
         <v>18.76</v>
@@ -10233,7 +10255,7 @@
         <v>14.59999999999996</v>
       </c>
       <c r="K193" t="n">
-        <v>50.00000000000044</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L193" t="n">
         <v>18.8</v>
@@ -10335,7 +10357,7 @@
         <v>14.79999999999997</v>
       </c>
       <c r="K195" t="n">
-        <v>40.00000000000014</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L195" t="n">
         <v>18.86</v>
@@ -10386,7 +10408,7 @@
         <v>14.79999999999997</v>
       </c>
       <c r="K196" t="n">
-        <v>40.00000000000014</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L196" t="n">
         <v>18.89</v>
@@ -10437,7 +10459,7 @@
         <v>14.79999999999997</v>
       </c>
       <c r="K197" t="n">
-        <v>33.3333333333336</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L197" t="n">
         <v>18.93</v>
@@ -10488,7 +10510,7 @@
         <v>14.89999999999997</v>
       </c>
       <c r="K198" t="n">
-        <v>40.00000000000036</v>
+        <v>50</v>
       </c>
       <c r="L198" t="n">
         <v>18.96</v>
@@ -10539,7 +10561,7 @@
         <v>14.89999999999997</v>
       </c>
       <c r="K199" t="n">
-        <v>40.00000000000036</v>
+        <v>50</v>
       </c>
       <c r="L199" t="n">
         <v>18.98</v>
@@ -10590,7 +10612,7 @@
         <v>14.89999999999997</v>
       </c>
       <c r="K200" t="n">
-        <v>40.00000000000036</v>
+        <v>50</v>
       </c>
       <c r="L200" t="n">
         <v>19</v>
@@ -10641,7 +10663,7 @@
         <v>14.99999999999996</v>
       </c>
       <c r="K201" t="n">
-        <v>60</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L201" t="n">
         <v>19.02999999999999</v>
@@ -10692,7 +10714,7 @@
         <v>15.19999999999996</v>
       </c>
       <c r="K202" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>19.04</v>
@@ -10743,7 +10765,7 @@
         <v>15.29999999999997</v>
       </c>
       <c r="K203" t="n">
-        <v>38.46153846153855</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L203" t="n">
         <v>19.04999999999999</v>
@@ -10794,7 +10816,7 @@
         <v>15.59999999999997</v>
       </c>
       <c r="K204" t="n">
-        <v>12.49999999999997</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L204" t="n">
         <v>19.04</v>
@@ -10845,7 +10867,7 @@
         <v>15.69999999999997</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>19.00999999999999</v>
@@ -10896,7 +10918,7 @@
         <v>15.79999999999997</v>
       </c>
       <c r="K206" t="n">
-        <v>5.882352941176544</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L206" t="n">
         <v>18.98999999999999</v>
@@ -10947,7 +10969,7 @@
         <v>15.99999999999997</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L207" t="n">
         <v>18.95</v>
@@ -10998,7 +11020,7 @@
         <v>16.09999999999997</v>
       </c>
       <c r="K208" t="n">
-        <v>-5.882352941176544</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L208" t="n">
         <v>18.90999999999999</v>
@@ -11049,7 +11071,7 @@
         <v>16.19999999999996</v>
       </c>
       <c r="K209" t="n">
-        <v>-17.64705882352921</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L209" t="n">
         <v>18.85999999999999</v>
@@ -11100,7 +11122,7 @@
         <v>16.29999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>-22.22222222222209</v>
+        <v>-53.84615384615377</v>
       </c>
       <c r="L210" t="n">
         <v>18.79999999999999</v>
@@ -11151,7 +11173,7 @@
         <v>16.49999999999996</v>
       </c>
       <c r="K211" t="n">
-        <v>-9.999999999999947</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L211" t="n">
         <v>18.74999999999999</v>
@@ -11202,7 +11224,7 @@
         <v>16.69999999999996</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L212" t="n">
         <v>18.73999999999999</v>
@@ -11253,7 +11275,7 @@
         <v>16.89999999999997</v>
       </c>
       <c r="K213" t="n">
-        <v>4.347826086956576</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L213" t="n">
         <v>18.73999999999999</v>
@@ -11304,7 +11326,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L214" t="n">
         <v>18.74999999999999</v>
@@ -11355,7 +11377,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K215" t="n">
-        <v>-4.347826086956576</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L215" t="n">
         <v>18.77</v>
@@ -11406,7 +11428,7 @@
         <v>17.39999999999997</v>
       </c>
       <c r="K216" t="n">
-        <v>-15.38461538461532</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>18.74999999999999</v>
@@ -11457,7 +11479,7 @@
         <v>17.69999999999996</v>
       </c>
       <c r="K217" t="n">
-        <v>-3.448275862069016</v>
+        <v>12.49999999999997</v>
       </c>
       <c r="L217" t="n">
         <v>18.77999999999999</v>
@@ -11508,7 +11530,7 @@
         <v>17.79999999999996</v>
       </c>
       <c r="K218" t="n">
-        <v>-10.34482758620694</v>
+        <v>12.49999999999997</v>
       </c>
       <c r="L218" t="n">
         <v>18.79</v>
@@ -11559,7 +11581,7 @@
         <v>17.89999999999996</v>
       </c>
       <c r="K219" t="n">
-        <v>-6.666666666666778</v>
+        <v>25</v>
       </c>
       <c r="L219" t="n">
         <v>18.82</v>
@@ -11610,7 +11632,7 @@
         <v>17.99999999999996</v>
       </c>
       <c r="K220" t="n">
-        <v>-9.677419354838761</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L220" t="n">
         <v>18.85</v>
@@ -11661,7 +11683,7 @@
         <v>18.19999999999996</v>
       </c>
       <c r="K221" t="n">
-        <v>-6.249999999999993</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L221" t="n">
         <v>18.88</v>
@@ -11712,7 +11734,7 @@
         <v>18.29999999999996</v>
       </c>
       <c r="K222" t="n">
-        <v>-3.225806451612955</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L222" t="n">
         <v>18.88</v>
@@ -11763,7 +11785,7 @@
         <v>18.39999999999996</v>
       </c>
       <c r="K223" t="n">
-        <v>-9.677419354838761</v>
+        <v>-7.692307692307608</v>
       </c>
       <c r="L223" t="n">
         <v>18.85</v>
@@ -11814,7 +11836,7 @@
         <v>18.59999999999996</v>
       </c>
       <c r="K224" t="n">
-        <v>6.666666666666667</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L224" t="n">
         <v>18.86</v>
@@ -11865,7 +11887,7 @@
         <v>18.69999999999996</v>
       </c>
       <c r="K225" t="n">
-        <v>6.666666666666667</v>
+        <v>23.07692307692303</v>
       </c>
       <c r="L225" t="n">
         <v>18.86</v>
@@ -11916,7 +11938,7 @@
         <v>18.69999999999996</v>
       </c>
       <c r="K226" t="n">
-        <v>3.448275862068907</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>18.89</v>
@@ -11967,7 +11989,7 @@
         <v>18.79999999999995</v>
       </c>
       <c r="K227" t="n">
-        <v>7.142857142857152</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>18.88</v>
@@ -12018,7 +12040,7 @@
         <v>18.99999999999995</v>
       </c>
       <c r="K228" t="n">
-        <v>-3.448275862068907</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L228" t="n">
         <v>18.86</v>
@@ -12069,7 +12091,7 @@
         <v>18.99999999999995</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L229" t="n">
         <v>18.83</v>
@@ -12120,7 +12142,7 @@
         <v>19.09999999999995</v>
       </c>
       <c r="K230" t="n">
-        <v>7.142857142857152</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L230" t="n">
         <v>18.82</v>
@@ -12171,7 +12193,7 @@
         <v>19.29999999999995</v>
       </c>
       <c r="K231" t="n">
-        <v>7.142857142857152</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>18.81</v>
@@ -12222,7 +12244,7 @@
         <v>19.29999999999995</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L232" t="n">
         <v>18.81</v>
@@ -12273,7 +12295,7 @@
         <v>19.39999999999995</v>
       </c>
       <c r="K233" t="n">
-        <v>-12.00000000000011</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L233" t="n">
         <v>18.81</v>
@@ -12324,7 +12346,7 @@
         <v>19.39999999999995</v>
       </c>
       <c r="K234" t="n">
-        <v>-4.347826086956468</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L234" t="n">
         <v>18.79</v>
@@ -12375,7 +12397,7 @@
         <v>19.49999999999995</v>
       </c>
       <c r="K235" t="n">
-        <v>-8.333333333333371</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L235" t="n">
         <v>18.77</v>
@@ -12426,7 +12448,7 @@
         <v>19.59999999999995</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L236" t="n">
         <v>18.74</v>
@@ -12477,7 +12499,7 @@
         <v>19.59999999999995</v>
       </c>
       <c r="K237" t="n">
-        <v>-15.78947368421051</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>18.72</v>
@@ -12528,7 +12550,7 @@
         <v>19.59999999999995</v>
       </c>
       <c r="K238" t="n">
-        <v>-11.11111111111116</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>18.72</v>
@@ -12579,7 +12601,7 @@
         <v>19.59999999999995</v>
       </c>
       <c r="K239" t="n">
-        <v>-17.64705882352936</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L239" t="n">
         <v>18.72</v>
@@ -12630,7 +12652,7 @@
         <v>19.69999999999995</v>
       </c>
       <c r="K240" t="n">
-        <v>-5.882352941176594</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L240" t="n">
         <v>18.72</v>
@@ -12681,7 +12703,7 @@
         <v>19.79999999999995</v>
       </c>
       <c r="K241" t="n">
-        <v>-12.50000000000003</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L241" t="n">
         <v>18.71</v>
@@ -12732,7 +12754,7 @@
         <v>19.79999999999995</v>
       </c>
       <c r="K242" t="n">
-        <v>-6.666666666666572</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>18.7</v>
@@ -12834,7 +12856,7 @@
         <v>19.79999999999995</v>
       </c>
       <c r="K244" t="n">
-        <v>-16.66666666666671</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L244" t="n">
         <v>18.7</v>
@@ -12885,7 +12907,7 @@
         <v>19.89999999999995</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L245" t="n">
         <v>18.72</v>
@@ -12936,7 +12958,7 @@
         <v>19.89999999999995</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L246" t="n">
         <v>18.75</v>
@@ -12987,7 +13009,7 @@
         <v>20.19999999999994</v>
       </c>
       <c r="K247" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>18.75</v>
@@ -13038,7 +13060,7 @@
         <v>20.29999999999994</v>
       </c>
       <c r="K248" t="n">
-        <v>7.692307692307608</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L248" t="n">
         <v>18.76</v>
@@ -13089,7 +13111,7 @@
         <v>20.49999999999994</v>
       </c>
       <c r="K249" t="n">
-        <v>20</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L249" t="n">
         <v>18.79</v>
@@ -13140,7 +13162,7 @@
         <v>20.59999999999994</v>
       </c>
       <c r="K250" t="n">
-        <v>6.666666666666825</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>18.8</v>
@@ -13191,7 +13213,7 @@
         <v>20.79999999999994</v>
       </c>
       <c r="K251" t="n">
-        <v>-20</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L251" t="n">
         <v>18.78</v>
@@ -13242,7 +13264,7 @@
         <v>20.79999999999994</v>
       </c>
       <c r="K252" t="n">
-        <v>-20</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L252" t="n">
         <v>18.76</v>
@@ -13293,7 +13315,7 @@
         <v>20.79999999999994</v>
       </c>
       <c r="K253" t="n">
-        <v>-14.28571428571436</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L253" t="n">
         <v>18.74</v>
@@ -13344,7 +13366,7 @@
         <v>20.79999999999994</v>
       </c>
       <c r="K254" t="n">
-        <v>-14.28571428571436</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>18.72</v>
@@ -13395,7 +13417,7 @@
         <v>20.79999999999994</v>
       </c>
       <c r="K255" t="n">
-        <v>-7.692307692307608</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>18.68999999999999</v>
@@ -13446,7 +13468,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K256" t="n">
-        <v>7.692307692307608</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L256" t="n">
         <v>18.66999999999999</v>
@@ -13497,7 +13519,7 @@
         <v>20.89999999999993</v>
       </c>
       <c r="K257" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>18.67999999999999</v>
@@ -13548,7 +13570,7 @@
         <v>20.99999999999993</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>-60.00000000000028</v>
       </c>
       <c r="L258" t="n">
         <v>18.66999999999999</v>
@@ -13599,7 +13621,7 @@
         <v>20.99999999999993</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L259" t="n">
         <v>18.63999999999999</v>
@@ -13650,7 +13672,7 @@
         <v>20.99999999999993</v>
       </c>
       <c r="K260" t="n">
-        <v>-7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>18.61999999999999</v>
@@ -13701,7 +13723,7 @@
         <v>21.09999999999993</v>
       </c>
       <c r="K261" t="n">
-        <v>-23.07692307692337</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L261" t="n">
         <v>18.60999999999999</v>
@@ -13752,7 +13774,7 @@
         <v>21.19999999999994</v>
       </c>
       <c r="K262" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>18.60999999999999</v>
@@ -13803,7 +13825,7 @@
         <v>21.19999999999994</v>
       </c>
       <c r="K263" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>18.60999999999999</v>
@@ -13854,7 +13876,7 @@
         <v>21.19999999999994</v>
       </c>
       <c r="K264" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>18.60999999999999</v>
@@ -13905,7 +13927,7 @@
         <v>21.19999999999994</v>
       </c>
       <c r="K265" t="n">
-        <v>-23.07692307692303</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L265" t="n">
         <v>18.60999999999999</v>
@@ -13956,7 +13978,7 @@
         <v>21.19999999999994</v>
       </c>
       <c r="K266" t="n">
-        <v>-23.07692307692303</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L266" t="n">
         <v>18.59999999999999</v>
@@ -14007,7 +14029,7 @@
         <v>21.29999999999994</v>
       </c>
       <c r="K267" t="n">
-        <v>-9.090909090909268</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>18.57999999999999</v>
@@ -14058,7 +14080,7 @@
         <v>21.39999999999994</v>
       </c>
       <c r="K268" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>18.57999999999999</v>
@@ -14109,7 +14131,7 @@
         <v>21.39999999999994</v>
       </c>
       <c r="K269" t="n">
-        <v>-33.33333333333307</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>18.57999999999999</v>
@@ -14160,7 +14182,7 @@
         <v>21.49999999999994</v>
       </c>
       <c r="K270" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>18.56999999999999</v>
@@ -14262,7 +14284,7 @@
         <v>21.69999999999994</v>
       </c>
       <c r="K272" t="n">
-        <v>11.11111111111085</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L272" t="n">
         <v>18.58999999999999</v>
@@ -14313,7 +14335,7 @@
         <v>21.69999999999994</v>
       </c>
       <c r="K273" t="n">
-        <v>11.11111111111085</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L273" t="n">
         <v>18.59999999999999</v>
@@ -14364,7 +14386,7 @@
         <v>21.79999999999994</v>
       </c>
       <c r="K274" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L274" t="n">
         <v>18.61999999999999</v>
@@ -14415,7 +14437,7 @@
         <v>21.79999999999994</v>
       </c>
       <c r="K275" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L275" t="n">
         <v>18.63999999999999</v>
@@ -14466,7 +14488,7 @@
         <v>21.79999999999994</v>
       </c>
       <c r="K276" t="n">
-        <v>11.1111111111112</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L276" t="n">
         <v>18.66</v>
@@ -14517,7 +14539,7 @@
         <v>21.79999999999994</v>
       </c>
       <c r="K277" t="n">
-        <v>11.1111111111112</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L277" t="n">
         <v>18.69</v>
@@ -14568,7 +14590,7 @@
         <v>21.79999999999994</v>
       </c>
       <c r="K278" t="n">
-        <v>24.99999999999967</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L278" t="n">
         <v>18.71</v>
@@ -14619,7 +14641,7 @@
         <v>21.89999999999994</v>
       </c>
       <c r="K279" t="n">
-        <v>11.11111111111076</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L279" t="n">
         <v>18.72</v>
@@ -14670,7 +14692,7 @@
         <v>21.89999999999994</v>
       </c>
       <c r="K280" t="n">
-        <v>11.11111111111076</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L280" t="n">
         <v>18.74</v>
@@ -14721,7 +14743,7 @@
         <v>21.89999999999994</v>
       </c>
       <c r="K281" t="n">
-        <v>24.99999999999967</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>18.75</v>
@@ -14772,7 +14794,7 @@
         <v>22.09999999999994</v>
       </c>
       <c r="K282" t="n">
-        <v>-11.1111111111112</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L282" t="n">
         <v>18.73</v>
@@ -14823,7 +14845,7 @@
         <v>22.29999999999994</v>
       </c>
       <c r="K283" t="n">
-        <v>9.090909090908857</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L283" t="n">
         <v>18.73</v>
@@ -14874,7 +14896,7 @@
         <v>22.29999999999994</v>
       </c>
       <c r="K284" t="n">
-        <v>9.090909090908857</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L284" t="n">
         <v>18.72</v>
@@ -14925,7 +14947,7 @@
         <v>22.39999999999994</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L285" t="n">
         <v>18.7</v>
@@ -14976,7 +14998,7 @@
         <v>22.39999999999994</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>18.67999999999999</v>
@@ -15027,7 +15049,7 @@
         <v>22.49999999999994</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L287" t="n">
         <v>18.64999999999999</v>
@@ -15078,7 +15100,7 @@
         <v>22.59999999999994</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L288" t="n">
         <v>18.62999999999999</v>
@@ -15129,7 +15151,7 @@
         <v>22.59999999999994</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L289" t="n">
         <v>18.61999999999999</v>
@@ -15180,7 +15202,7 @@
         <v>22.69999999999994</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L290" t="n">
         <v>18.59999999999999</v>
@@ -15231,7 +15253,7 @@
         <v>22.69999999999994</v>
       </c>
       <c r="K291" t="n">
-        <v>-9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>18.57999999999999</v>
@@ -15282,7 +15304,7 @@
         <v>22.79999999999994</v>
       </c>
       <c r="K292" t="n">
-        <v>-9.090909090908857</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L292" t="n">
         <v>18.58999999999999</v>
@@ -15333,7 +15355,7 @@
         <v>22.79999999999994</v>
       </c>
       <c r="K293" t="n">
-        <v>-9.090909090908857</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L293" t="n">
         <v>18.57999999999999</v>
@@ -15384,7 +15406,7 @@
         <v>22.79999999999994</v>
       </c>
       <c r="K294" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>18.56999999999999</v>
@@ -15435,7 +15457,7 @@
         <v>22.89999999999994</v>
       </c>
       <c r="K295" t="n">
-        <v>-9.090909090909207</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L295" t="n">
         <v>18.57999999999999</v>
@@ -15486,7 +15508,7 @@
         <v>22.99999999999994</v>
       </c>
       <c r="K296" t="n">
-        <v>-16.66666666666662</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L296" t="n">
         <v>18.57999999999999</v>
@@ -15537,7 +15559,7 @@
         <v>23.09999999999994</v>
       </c>
       <c r="K297" t="n">
-        <v>-7.692307692307819</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L297" t="n">
         <v>18.59999999999999</v>
@@ -15588,7 +15610,7 @@
         <v>23.09999999999994</v>
       </c>
       <c r="K298" t="n">
-        <v>-7.692307692307819</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L298" t="n">
         <v>18.60999999999999</v>
@@ -15639,7 +15661,7 @@
         <v>23.09999999999994</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L299" t="n">
         <v>18.61999999999999</v>
@@ -15690,7 +15712,7 @@
         <v>23.19999999999994</v>
       </c>
       <c r="K300" t="n">
-        <v>-7.692307692307566</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L300" t="n">
         <v>18.62999999999999</v>
@@ -15741,7 +15763,7 @@
         <v>23.29999999999994</v>
       </c>
       <c r="K301" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L301" t="n">
         <v>18.62999999999999</v>
@@ -15792,7 +15814,7 @@
         <v>23.39999999999994</v>
       </c>
       <c r="K302" t="n">
-        <v>7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>18.62999999999999</v>
@@ -15843,7 +15865,7 @@
         <v>23.39999999999994</v>
       </c>
       <c r="K303" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L303" t="n">
         <v>18.62999999999999</v>
@@ -15894,7 +15916,7 @@
         <v>23.39999999999994</v>
       </c>
       <c r="K304" t="n">
-        <v>-9.090909090908914</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L304" t="n">
         <v>18.62999999999999</v>
@@ -15996,7 +16018,7 @@
         <v>23.39999999999994</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L306" t="n">
         <v>18.61999999999999</v>
@@ -16047,7 +16069,7 @@
         <v>23.49999999999994</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L307" t="n">
         <v>18.59999999999999</v>
@@ -16098,7 +16120,7 @@
         <v>23.59999999999994</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L308" t="n">
         <v>18.58999999999999</v>
@@ -16149,7 +16171,7 @@
         <v>23.79999999999994</v>
       </c>
       <c r="K309" t="n">
-        <v>-16.66666666666686</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L309" t="n">
         <v>18.56</v>
@@ -16251,7 +16273,7 @@
         <v>23.89999999999995</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L311" t="n">
         <v>18.54999999999999</v>
@@ -16302,7 +16324,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K312" t="n">
-        <v>-16.66666666666686</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L312" t="n">
         <v>18.52999999999999</v>
@@ -16353,7 +16375,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K313" t="n">
-        <v>-16.66666666666686</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>18.51</v>
@@ -16404,7 +16426,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K314" t="n">
-        <v>-16.66666666666686</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L314" t="n">
         <v>18.49</v>
@@ -16455,7 +16477,7 @@
         <v>24.19999999999995</v>
       </c>
       <c r="K315" t="n">
-        <v>-38.46153846153834</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L315" t="n">
         <v>18.45</v>
@@ -16506,7 +16528,7 @@
         <v>24.19999999999995</v>
       </c>
       <c r="K316" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L316" t="n">
         <v>18.41</v>
@@ -16557,7 +16579,7 @@
         <v>24.29999999999995</v>
       </c>
       <c r="K317" t="n">
-        <v>-33.33333333333294</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L317" t="n">
         <v>18.39</v>
@@ -16608,7 +16630,7 @@
         <v>24.29999999999995</v>
       </c>
       <c r="K318" t="n">
-        <v>-33.33333333333294</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L318" t="n">
         <v>18.36</v>
@@ -16659,7 +16681,7 @@
         <v>24.49999999999995</v>
       </c>
       <c r="K319" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>18.37</v>
@@ -16710,7 +16732,7 @@
         <v>24.59999999999995</v>
       </c>
       <c r="K320" t="n">
-        <v>-14.28571428571436</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L320" t="n">
         <v>18.36</v>
@@ -16761,7 +16783,7 @@
         <v>24.69999999999995</v>
       </c>
       <c r="K321" t="n">
-        <v>-14.28571428571414</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L321" t="n">
         <v>18.34</v>
@@ -16812,7 +16834,7 @@
         <v>24.79999999999994</v>
       </c>
       <c r="K322" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>18.34</v>
@@ -16863,7 +16885,7 @@
         <v>24.79999999999994</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>18.34</v>
@@ -16914,7 +16936,7 @@
         <v>24.79999999999994</v>
       </c>
       <c r="K324" t="n">
-        <v>-14.28571428571443</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L324" t="n">
         <v>18.34</v>
@@ -16965,7 +16987,7 @@
         <v>24.79999999999994</v>
       </c>
       <c r="K325" t="n">
-        <v>-14.28571428571443</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>18.36</v>
@@ -17016,7 +17038,7 @@
         <v>24.79999999999994</v>
       </c>
       <c r="K326" t="n">
-        <v>-14.28571428571443</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L326" t="n">
         <v>18.38</v>
@@ -17067,7 +17089,7 @@
         <v>25.09999999999994</v>
       </c>
       <c r="K327" t="n">
-        <v>12.49999999999992</v>
+        <v>50</v>
       </c>
       <c r="L327" t="n">
         <v>18.42</v>
@@ -17118,7 +17140,7 @@
         <v>25.09999999999994</v>
       </c>
       <c r="K328" t="n">
-        <v>6.666666666666508</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>18.46</v>
@@ -17169,7 +17191,7 @@
         <v>25.29999999999994</v>
       </c>
       <c r="K329" t="n">
-        <v>6.666666666666761</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L329" t="n">
         <v>18.46</v>
@@ -17220,7 +17242,7 @@
         <v>25.59999999999994</v>
       </c>
       <c r="K330" t="n">
-        <v>-17.64705882352946</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L330" t="n">
         <v>18.44</v>
@@ -17271,7 +17293,7 @@
         <v>25.59999999999994</v>
       </c>
       <c r="K331" t="n">
-        <v>-17.64705882352946</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L331" t="n">
         <v>18.43</v>
@@ -17373,7 +17395,7 @@
         <v>25.99999999999995</v>
       </c>
       <c r="K333" t="n">
-        <v>10.00000000000014</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L333" t="n">
         <v>18.45</v>
@@ -17424,7 +17446,7 @@
         <v>25.99999999999995</v>
       </c>
       <c r="K334" t="n">
-        <v>10.00000000000014</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L334" t="n">
         <v>18.46999999999999</v>
@@ -17475,7 +17497,7 @@
         <v>26.19999999999995</v>
       </c>
       <c r="K335" t="n">
-        <v>9.999999999999947</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>18.46999999999999</v>
@@ -17526,7 +17548,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K336" t="n">
-        <v>18.18181818181823</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L336" t="n">
         <v>18.48999999999999</v>
@@ -17577,7 +17599,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K337" t="n">
-        <v>14.28571428571428</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L337" t="n">
         <v>18.47999999999999</v>
@@ -17628,7 +17650,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K338" t="n">
-        <v>14.28571428571428</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L338" t="n">
         <v>18.46999999999999</v>
@@ -17679,7 +17701,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K339" t="n">
-        <v>5.263157894736901</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L339" t="n">
         <v>18.47999999999999</v>
@@ -17730,7 +17752,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K340" t="n">
-        <v>11.11111111111124</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L340" t="n">
         <v>18.51999999999999</v>
@@ -17781,7 +17803,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K341" t="n">
-        <v>17.64705882352939</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>18.56</v>
@@ -17832,7 +17854,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K342" t="n">
-        <v>12.50000000000011</v>
+        <v>0</v>
       </c>
       <c r="L342" t="n">
         <v>18.57999999999999</v>
@@ -17883,7 +17905,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K343" t="n">
-        <v>12.50000000000011</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>18.57999999999999</v>
@@ -17985,7 +18007,7 @@
         <v>26.69999999999996</v>
       </c>
       <c r="K345" t="n">
-        <v>5.263157894736882</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>18.56999999999999</v>
@@ -18036,7 +18058,7 @@
         <v>26.79999999999996</v>
       </c>
       <c r="K346" t="n">
-        <v>10.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>18.56999999999999</v>
@@ -18087,7 +18109,7 @@
         <v>26.79999999999996</v>
       </c>
       <c r="K347" t="n">
-        <v>-5.882352941176299</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>18.56999999999999</v>
@@ -18138,7 +18160,7 @@
         <v>26.89999999999996</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L348" t="n">
         <v>18.57999999999999</v>
@@ -18189,7 +18211,7 @@
         <v>26.89999999999996</v>
       </c>
       <c r="K349" t="n">
-        <v>12.49999999999986</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L349" t="n">
         <v>18.58999999999999</v>
@@ -18240,7 +18262,7 @@
         <v>26.89999999999996</v>
       </c>
       <c r="K350" t="n">
-        <v>38.46153846153813</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L350" t="n">
         <v>18.59999999999999</v>
@@ -18291,7 +18313,7 @@
         <v>27.09999999999996</v>
       </c>
       <c r="K351" t="n">
-        <v>46.66666666666629</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L351" t="n">
         <v>18.62999999999999</v>
@@ -18342,7 +18364,7 @@
         <v>27.09999999999996</v>
       </c>
       <c r="K352" t="n">
-        <v>38.46153846153813</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L352" t="n">
         <v>18.65999999999999</v>
@@ -18393,7 +18415,7 @@
         <v>27.19999999999996</v>
       </c>
       <c r="K353" t="n">
-        <v>33.33333333333294</v>
+        <v>100</v>
       </c>
       <c r="L353" t="n">
         <v>18.7</v>
@@ -18444,7 +18466,7 @@
         <v>27.29999999999996</v>
       </c>
       <c r="K354" t="n">
-        <v>38.46153846153813</v>
+        <v>100</v>
       </c>
       <c r="L354" t="n">
         <v>18.76999999999999</v>
@@ -18495,7 +18517,7 @@
         <v>27.49999999999996</v>
       </c>
       <c r="K355" t="n">
-        <v>69.23076923076897</v>
+        <v>100</v>
       </c>
       <c r="L355" t="n">
         <v>18.84999999999999</v>
@@ -18546,7 +18568,7 @@
         <v>27.69999999999996</v>
       </c>
       <c r="K356" t="n">
-        <v>69.2307692307689</v>
+        <v>100</v>
       </c>
       <c r="L356" t="n">
         <v>18.93999999999999</v>
@@ -18597,7 +18619,7 @@
         <v>27.79999999999996</v>
       </c>
       <c r="K357" t="n">
-        <v>71.42857142857115</v>
+        <v>100</v>
       </c>
       <c r="L357" t="n">
         <v>19.04</v>
@@ -18648,7 +18670,7 @@
         <v>27.89999999999996</v>
       </c>
       <c r="K358" t="n">
-        <v>59.99999999999962</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L358" t="n">
         <v>19.12</v>
@@ -18699,7 +18721,7 @@
         <v>28.09999999999996</v>
       </c>
       <c r="K359" t="n">
-        <v>41.1764705882351</v>
+        <v>50</v>
       </c>
       <c r="L359" t="n">
         <v>19.18</v>
@@ -18750,7 +18772,7 @@
         <v>28.29999999999996</v>
       </c>
       <c r="K360" t="n">
-        <v>47.36842105263136</v>
+        <v>50</v>
       </c>
       <c r="L360" t="n">
         <v>19.26</v>
@@ -18801,7 +18823,7 @@
         <v>28.39999999999996</v>
       </c>
       <c r="K361" t="n">
-        <v>39.99999999999972</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L361" t="n">
         <v>19.31</v>
@@ -18852,7 +18874,7 @@
         <v>28.49999999999996</v>
       </c>
       <c r="K362" t="n">
-        <v>42.85714285714262</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L362" t="n">
         <v>19.37</v>
@@ -18903,7 +18925,7 @@
         <v>28.89999999999996</v>
       </c>
       <c r="K363" t="n">
-        <v>51.99999999999974</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L363" t="n">
         <v>19.46</v>
@@ -18954,7 +18976,7 @@
         <v>28.99999999999996</v>
       </c>
       <c r="K364" t="n">
-        <v>58.33333333333337</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>19.53</v>
@@ -19005,7 +19027,7 @@
         <v>29.19999999999996</v>
       </c>
       <c r="K365" t="n">
-        <v>44.00000000000006</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L365" t="n">
         <v>19.56</v>
@@ -19056,7 +19078,7 @@
         <v>29.19999999999996</v>
       </c>
       <c r="K366" t="n">
-        <v>41.66666666666669</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>19.57</v>
@@ -19107,7 +19129,7 @@
         <v>29.39999999999996</v>
       </c>
       <c r="K367" t="n">
-        <v>46.15384615384616</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L367" t="n">
         <v>19.59</v>
@@ -19158,7 +19180,7 @@
         <v>29.69999999999996</v>
       </c>
       <c r="K368" t="n">
-        <v>28.57142857142859</v>
+        <v>12.49999999999997</v>
       </c>
       <c r="L368" t="n">
         <v>19.59</v>
@@ -19209,7 +19231,7 @@
         <v>29.79999999999996</v>
       </c>
       <c r="K369" t="n">
-        <v>31.03448275862074</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L369" t="n">
         <v>19.62</v>
@@ -19260,7 +19282,7 @@
         <v>29.79999999999996</v>
       </c>
       <c r="K370" t="n">
-        <v>31.03448275862074</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L370" t="n">
         <v>19.63</v>
@@ -19311,7 +19333,7 @@
         <v>29.89999999999996</v>
       </c>
       <c r="K371" t="n">
-        <v>21.42857142857145</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>19.64</v>
@@ -19362,7 +19384,7 @@
         <v>29.99999999999996</v>
       </c>
       <c r="K372" t="n">
-        <v>17.24137931034479</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L372" t="n">
         <v>19.63</v>
@@ -19413,7 +19435,7 @@
         <v>30.09999999999996</v>
       </c>
       <c r="K373" t="n">
-        <v>10.34482758620691</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L373" t="n">
         <v>19.57</v>
@@ -19464,7 +19486,7 @@
         <v>30.19999999999996</v>
       </c>
       <c r="K374" t="n">
-        <v>10.3448275862068</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L374" t="n">
         <v>19.53</v>
@@ -19515,7 +19537,7 @@
         <v>30.39999999999996</v>
       </c>
       <c r="K375" t="n">
-        <v>-3.448275862069016</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L375" t="n">
         <v>19.49</v>
@@ -19566,7 +19588,7 @@
         <v>30.59999999999996</v>
       </c>
       <c r="K376" t="n">
-        <v>-3.448275862069016</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L376" t="n">
         <v>19.47</v>
@@ -19617,7 +19639,7 @@
         <v>30.69999999999995</v>
       </c>
       <c r="K377" t="n">
-        <v>-10.34482758620694</v>
+        <v>-20</v>
       </c>
       <c r="L377" t="n">
         <v>19.42</v>
@@ -19668,7 +19690,7 @@
         <v>30.79999999999995</v>
       </c>
       <c r="K378" t="n">
-        <v>-3.448275862069024</v>
+        <v>-20.00000000000043</v>
       </c>
       <c r="L378" t="n">
         <v>19.41</v>
@@ -19719,7 +19741,7 @@
         <v>30.89999999999995</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L379" t="n">
         <v>19.38</v>
@@ -19770,7 +19792,7 @@
         <v>30.99999999999995</v>
       </c>
       <c r="K380" t="n">
-        <v>-11.11111111111117</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L380" t="n">
         <v>19.34</v>
@@ -19821,7 +19843,7 @@
         <v>31.09999999999995</v>
       </c>
       <c r="K381" t="n">
-        <v>-11.11111111111105</v>
+        <v>-27.27272727272733</v>
       </c>
       <c r="L381" t="n">
         <v>19.3</v>
@@ -19872,7 +19894,7 @@
         <v>31.09999999999995</v>
       </c>
       <c r="K382" t="n">
-        <v>-15.3846153846154</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L382" t="n">
         <v>19.27</v>
@@ -19923,7 +19945,7 @@
         <v>31.09999999999995</v>
       </c>
       <c r="K383" t="n">
-        <v>-36.36363636363642</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L383" t="n">
         <v>19.25</v>
@@ -19974,7 +19996,7 @@
         <v>31.19999999999995</v>
       </c>
       <c r="K384" t="n">
-        <v>-27.27272727272748</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>19.23</v>
@@ -20025,7 +20047,7 @@
         <v>31.19999999999995</v>
       </c>
       <c r="K385" t="n">
-        <v>-20.00000000000021</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L385" t="n">
         <v>19.23</v>
@@ -20076,7 +20098,7 @@
         <v>31.29999999999994</v>
       </c>
       <c r="K386" t="n">
-        <v>-23.80952380952396</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L386" t="n">
         <v>19.2</v>
@@ -20127,7 +20149,7 @@
         <v>31.29999999999994</v>
       </c>
       <c r="K387" t="n">
-        <v>-36.84210526315809</v>
+        <v>-60.00000000000028</v>
       </c>
       <c r="L387" t="n">
         <v>19.17999999999999</v>
@@ -20178,7 +20200,7 @@
         <v>31.39999999999995</v>
       </c>
       <c r="K388" t="n">
-        <v>-29.41176470588255</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L388" t="n">
         <v>19.13999999999999</v>
@@ -20229,7 +20251,7 @@
         <v>31.49999999999995</v>
       </c>
       <c r="K389" t="n">
-        <v>-29.41176470588255</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L389" t="n">
         <v>19.11999999999999</v>
@@ -20280,7 +20302,7 @@
         <v>31.49999999999995</v>
       </c>
       <c r="K390" t="n">
-        <v>-29.41176470588255</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>19.10999999999999</v>
@@ -20331,7 +20353,7 @@
         <v>31.69999999999995</v>
       </c>
       <c r="K391" t="n">
-        <v>-33.3333333333336</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L391" t="n">
         <v>19.08999999999999</v>
@@ -20382,7 +20404,7 @@
         <v>31.79999999999995</v>
       </c>
       <c r="K392" t="n">
-        <v>-33.33333333333346</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L392" t="n">
         <v>19.06</v>
@@ -20433,7 +20455,7 @@
         <v>31.99999999999995</v>
       </c>
       <c r="K393" t="n">
-        <v>-15.78947368421066</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L393" t="n">
         <v>19.04999999999999</v>
@@ -20484,7 +20506,7 @@
         <v>31.99999999999995</v>
       </c>
       <c r="K394" t="n">
-        <v>-22.22222222222226</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L394" t="n">
         <v>19.02999999999999</v>
@@ -20535,7 +20557,7 @@
         <v>31.99999999999995</v>
       </c>
       <c r="K395" t="n">
-        <v>-12.50000000000003</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L395" t="n">
         <v>19.01</v>
@@ -20586,7 +20608,7 @@
         <v>32.09999999999995</v>
       </c>
       <c r="K396" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>19.01</v>
@@ -20637,7 +20659,7 @@
         <v>32.29999999999995</v>
       </c>
       <c r="K397" t="n">
-        <v>-25.00000000000011</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L397" t="n">
         <v>18.99</v>
@@ -20688,7 +20710,7 @@
         <v>32.29999999999995</v>
       </c>
       <c r="K398" t="n">
-        <v>-33.33333333333325</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L398" t="n">
         <v>18.98</v>
@@ -20739,7 +20761,7 @@
         <v>32.39999999999996</v>
       </c>
       <c r="K399" t="n">
-        <v>-19.99999999999995</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L399" t="n">
         <v>18.97</v>
@@ -20790,7 +20812,7 @@
         <v>32.69999999999996</v>
       </c>
       <c r="K400" t="n">
-        <v>5.88235294117652</v>
+        <v>39.99999999999979</v>
       </c>
       <c r="L400" t="n">
         <v>18.99</v>
@@ -20841,7 +20863,7 @@
         <v>32.69999999999996</v>
       </c>
       <c r="K401" t="n">
-        <v>12.49999999999986</v>
+        <v>55.55555555555477</v>
       </c>
       <c r="L401" t="n">
         <v>19.03</v>
@@ -20892,7 +20914,7 @@
         <v>32.69999999999996</v>
       </c>
       <c r="K402" t="n">
-        <v>12.49999999999986</v>
+        <v>42.85714285714214</v>
       </c>
       <c r="L402" t="n">
         <v>19.08</v>
@@ -20943,7 +20965,7 @@
         <v>32.69999999999996</v>
       </c>
       <c r="K403" t="n">
-        <v>12.49999999999986</v>
+        <v>42.85714285714214</v>
       </c>
       <c r="L403" t="n">
         <v>19.11</v>
@@ -20994,7 +21016,7 @@
         <v>32.79999999999995</v>
       </c>
       <c r="K404" t="n">
-        <v>12.49999999999989</v>
+        <v>49.99999999999933</v>
       </c>
       <c r="L404" t="n">
         <v>19.15</v>
@@ -21045,7 +21067,7 @@
         <v>32.79999999999995</v>
       </c>
       <c r="K405" t="n">
-        <v>12.49999999999989</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L405" t="n">
         <v>19.19</v>
@@ -21096,7 +21118,7 @@
         <v>32.79999999999995</v>
       </c>
       <c r="K406" t="n">
-        <v>19.99999999999967</v>
+        <v>100</v>
       </c>
       <c r="L406" t="n">
         <v>19.22000000000001</v>
@@ -21147,7 +21169,7 @@
         <v>32.79999999999995</v>
       </c>
       <c r="K407" t="n">
-        <v>19.99999999999967</v>
+        <v>100</v>
       </c>
       <c r="L407" t="n">
         <v>19.27</v>
@@ -21198,7 +21220,7 @@
         <v>32.79999999999995</v>
       </c>
       <c r="K408" t="n">
-        <v>28.57142857142828</v>
+        <v>100</v>
       </c>
       <c r="L408" t="n">
         <v>19.32</v>
@@ -21249,7 +21271,7 @@
         <v>32.79999999999995</v>
       </c>
       <c r="K409" t="n">
-        <v>23.07692307692272</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L409" t="n">
         <v>19.36000000000001</v>
@@ -21300,7 +21322,7 @@
         <v>32.89999999999996</v>
       </c>
       <c r="K410" t="n">
-        <v>28.57142857142828</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L410" t="n">
         <v>19.38</v>
@@ -21351,7 +21373,7 @@
         <v>32.89999999999996</v>
       </c>
       <c r="K411" t="n">
-        <v>49.99999999999985</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L411" t="n">
         <v>19.4</v>
@@ -21402,7 +21424,7 @@
         <v>32.99999999999996</v>
       </c>
       <c r="K412" t="n">
-        <v>66.66666666666617</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L412" t="n">
         <v>19.43</v>
@@ -21453,7 +21475,7 @@
         <v>32.99999999999996</v>
       </c>
       <c r="K413" t="n">
-        <v>59.9999999999995</v>
+        <v>100</v>
       </c>
       <c r="L413" t="n">
         <v>19.46</v>
@@ -21504,7 +21526,7 @@
         <v>32.99999999999996</v>
       </c>
       <c r="K414" t="n">
-        <v>59.9999999999995</v>
+        <v>100</v>
       </c>
       <c r="L414" t="n">
         <v>19.48</v>
@@ -21555,7 +21577,7 @@
         <v>33.09999999999995</v>
       </c>
       <c r="K415" t="n">
-        <v>63.63636363636328</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L415" t="n">
         <v>19.51</v>
@@ -21606,7 +21628,7 @@
         <v>33.09999999999995</v>
       </c>
       <c r="K416" t="n">
-        <v>59.99999999999979</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L416" t="n">
         <v>19.54</v>
@@ -21657,7 +21679,7 @@
         <v>33.09999999999995</v>
       </c>
       <c r="K417" t="n">
-        <v>100.0000000000004</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L417" t="n">
         <v>19.56999999999999</v>
@@ -21708,7 +21730,7 @@
         <v>33.09999999999995</v>
       </c>
       <c r="K418" t="n">
-        <v>100.0000000000004</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L418" t="n">
         <v>19.59999999999999</v>
@@ -21759,7 +21781,7 @@
         <v>33.19999999999995</v>
       </c>
       <c r="K419" t="n">
-        <v>75.00000000000111</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L419" t="n">
         <v>19.61999999999999</v>
@@ -21810,7 +21832,7 @@
         <v>33.19999999999995</v>
       </c>
       <c r="K420" t="n">
-        <v>60.00000000000185</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L420" t="n">
         <v>19.62999999999999</v>
@@ -21861,7 +21883,7 @@
         <v>33.19999999999995</v>
       </c>
       <c r="K421" t="n">
-        <v>60.00000000000185</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>19.63999999999999</v>
@@ -21912,7 +21934,7 @@
         <v>33.19999999999995</v>
       </c>
       <c r="K422" t="n">
-        <v>60.00000000000185</v>
+        <v>0</v>
       </c>
       <c r="L422" t="n">
         <v>19.63999999999999</v>
@@ -21963,7 +21985,7 @@
         <v>33.29999999999995</v>
       </c>
       <c r="K423" t="n">
-        <v>33.33333333333393</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L423" t="n">
         <v>19.62999999999999</v>
@@ -22014,7 +22036,7 @@
         <v>33.29999999999995</v>
       </c>
       <c r="K424" t="n">
-        <v>20.00000000000057</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L424" t="n">
         <v>19.61999999999999</v>
@@ -22065,7 +22087,7 @@
         <v>33.39999999999995</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L425" t="n">
         <v>19.58999999999999</v>
@@ -22116,7 +22138,7 @@
         <v>33.49999999999994</v>
       </c>
       <c r="K426" t="n">
-        <v>-14.28571428571421</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L426" t="n">
         <v>19.54999999999999</v>
@@ -22167,7 +22189,7 @@
         <v>33.59999999999994</v>
       </c>
       <c r="K427" t="n">
-        <v>0</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L427" t="n">
         <v>19.52</v>
@@ -22218,7 +22240,7 @@
         <v>33.59999999999994</v>
       </c>
       <c r="K428" t="n">
-        <v>0</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L428" t="n">
         <v>19.49</v>
@@ -22269,7 +22291,7 @@
         <v>33.59999999999994</v>
       </c>
       <c r="K429" t="n">
-        <v>0</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L429" t="n">
         <v>19.47</v>
@@ -22320,7 +22342,7 @@
         <v>33.59999999999994</v>
       </c>
       <c r="K430" t="n">
-        <v>-14.28571428571487</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L430" t="n">
         <v>19.45</v>
@@ -22371,7 +22393,7 @@
         <v>33.59999999999994</v>
       </c>
       <c r="K431" t="n">
-        <v>-14.28571428571487</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L431" t="n">
         <v>19.43</v>
@@ -22524,7 +22546,7 @@
         <v>33.59999999999994</v>
       </c>
       <c r="K434" t="n">
-        <v>-33.33333333333491</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>19.39</v>
@@ -22575,7 +22597,7 @@
         <v>33.59999999999994</v>
       </c>
       <c r="K435" t="n">
-        <v>-60.00000000000185</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L435" t="n">
         <v>19.39</v>
@@ -22626,7 +22648,7 @@
         <v>33.69999999999994</v>
       </c>
       <c r="K436" t="n">
-        <v>-33.33333333333393</v>
+        <v>100</v>
       </c>
       <c r="L436" t="n">
         <v>19.41</v>
@@ -22677,7 +22699,7 @@
         <v>33.69999999999994</v>
       </c>
       <c r="K437" t="n">
-        <v>-33.33333333333393</v>
+        <v>100</v>
       </c>
       <c r="L437" t="n">
         <v>19.42</v>
@@ -22728,7 +22750,7 @@
         <v>33.79999999999994</v>
       </c>
       <c r="K438" t="n">
-        <v>-42.85714285714366</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>19.42</v>
@@ -22779,7 +22801,7 @@
         <v>33.89999999999994</v>
       </c>
       <c r="K439" t="n">
-        <v>-14.28571428571458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L439" t="n">
         <v>19.43</v>
@@ -22830,7 +22852,7 @@
         <v>33.89999999999994</v>
       </c>
       <c r="K440" t="n">
-        <v>-14.28571428571458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L440" t="n">
         <v>19.44</v>
@@ -22881,7 +22903,7 @@
         <v>33.89999999999994</v>
       </c>
       <c r="K441" t="n">
-        <v>-14.28571428571458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L441" t="n">
         <v>19.45</v>
@@ -22932,7 +22954,7 @@
         <v>33.99999999999994</v>
       </c>
       <c r="K442" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L442" t="n">
         <v>19.47</v>
@@ -22983,7 +23005,7 @@
         <v>34.09999999999994</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L443" t="n">
         <v>19.48</v>
@@ -23034,7 +23056,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K444" t="n">
-        <v>11.11111111111129</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L444" t="n">
         <v>19.5</v>
@@ -23085,7 +23107,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K445" t="n">
-        <v>25.00000000000044</v>
+        <v>20</v>
       </c>
       <c r="L445" t="n">
         <v>19.52</v>
@@ -23136,7 +23158,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K446" t="n">
-        <v>42.85714285714278</v>
+        <v>20</v>
       </c>
       <c r="L446" t="n">
         <v>19.52999999999999</v>
@@ -23187,7 +23209,7 @@
         <v>34.29999999999994</v>
       </c>
       <c r="K447" t="n">
-        <v>42.85714285714278</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L447" t="n">
         <v>19.54999999999999</v>
@@ -23238,7 +23260,7 @@
         <v>34.29999999999994</v>
       </c>
       <c r="K448" t="n">
-        <v>42.85714285714278</v>
+        <v>50</v>
       </c>
       <c r="L448" t="n">
         <v>19.57999999999999</v>
@@ -23289,7 +23311,7 @@
         <v>34.29999999999994</v>
       </c>
       <c r="K449" t="n">
-        <v>42.85714285714278</v>
+        <v>50</v>
       </c>
       <c r="L449" t="n">
         <v>19.59999999999999</v>
@@ -23340,7 +23362,7 @@
         <v>34.29999999999994</v>
       </c>
       <c r="K450" t="n">
-        <v>42.85714285714278</v>
+        <v>50</v>
       </c>
       <c r="L450" t="n">
         <v>19.61999999999999</v>
@@ -23391,7 +23413,7 @@
         <v>34.39999999999993</v>
       </c>
       <c r="K451" t="n">
-        <v>25.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>19.62999999999999</v>
@@ -23442,7 +23464,7 @@
         <v>34.49999999999993</v>
       </c>
       <c r="K452" t="n">
-        <v>33.33333333333373</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L452" t="n">
         <v>19.63999999999999</v>
@@ -23493,7 +23515,7 @@
         <v>34.49999999999993</v>
       </c>
       <c r="K453" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L453" t="n">
         <v>19.65999999999999</v>
@@ -23544,7 +23566,7 @@
         <v>34.49999999999993</v>
       </c>
       <c r="K454" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L454" t="n">
         <v>19.66999999999999</v>
@@ -23595,7 +23617,7 @@
         <v>34.49999999999993</v>
       </c>
       <c r="K455" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L455" t="n">
         <v>19.67999999999999</v>
@@ -23646,7 +23668,7 @@
         <v>34.49999999999993</v>
       </c>
       <c r="K456" t="n">
-        <v>25.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>19.68999999999999</v>
@@ -23697,7 +23719,7 @@
         <v>34.49999999999993</v>
       </c>
       <c r="K457" t="n">
-        <v>25.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>19.68999999999999</v>
@@ -23748,7 +23770,7 @@
         <v>34.49999999999993</v>
       </c>
       <c r="K458" t="n">
-        <v>42.85714285714366</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>19.68999999999999</v>
@@ -23799,7 +23821,7 @@
         <v>34.59999999999992</v>
       </c>
       <c r="K459" t="n">
-        <v>14.28571428571487</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L459" t="n">
         <v>19.67999999999999</v>
@@ -23850,7 +23872,7 @@
         <v>34.69999999999992</v>
       </c>
       <c r="K460" t="n">
-        <v>25.00000000000067</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L460" t="n">
         <v>19.67999999999999</v>
@@ -23901,7 +23923,7 @@
         <v>34.69999999999992</v>
       </c>
       <c r="K461" t="n">
-        <v>25.00000000000067</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>19.68999999999999</v>
@@ -23952,7 +23974,7 @@
         <v>34.79999999999992</v>
       </c>
       <c r="K462" t="n">
-        <v>25.00000000000067</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L462" t="n">
         <v>19.69999999999999</v>
@@ -24003,7 +24025,7 @@
         <v>34.99999999999991</v>
       </c>
       <c r="K463" t="n">
-        <v>11.11111111111164</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L463" t="n">
         <v>19.68999999999999</v>
@@ -24054,7 +24076,7 @@
         <v>34.99999999999991</v>
       </c>
       <c r="K464" t="n">
-        <v>0</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L464" t="n">
         <v>19.67999999999999</v>
@@ -24105,7 +24127,7 @@
         <v>35.19999999999992</v>
       </c>
       <c r="K465" t="n">
-        <v>20.0000000000005</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L465" t="n">
         <v>19.68999999999999</v>
@@ -24156,7 +24178,7 @@
         <v>35.39999999999992</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L466" t="n">
         <v>19.67999999999999</v>
@@ -24207,7 +24229,7 @@
         <v>35.39999999999992</v>
       </c>
       <c r="K467" t="n">
-        <v>-9.090909090909062</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L467" t="n">
         <v>19.66999999999999</v>
@@ -24258,7 +24280,7 @@
         <v>35.49999999999992</v>
       </c>
       <c r="K468" t="n">
-        <v>-16.66666666666686</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L468" t="n">
         <v>19.65</v>
@@ -24309,7 +24331,7 @@
         <v>35.59999999999992</v>
       </c>
       <c r="K469" t="n">
-        <v>-7.692307692307629</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L469" t="n">
         <v>19.65</v>
@@ -24360,7 +24382,7 @@
         <v>35.69999999999992</v>
       </c>
       <c r="K470" t="n">
-        <v>-14.28571428571439</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L470" t="n">
         <v>19.63</v>
@@ -24411,7 +24433,7 @@
         <v>35.89999999999992</v>
       </c>
       <c r="K471" t="n">
-        <v>-20.00000000000024</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L471" t="n">
         <v>19.59</v>
@@ -24462,7 +24484,7 @@
         <v>35.89999999999992</v>
       </c>
       <c r="K472" t="n">
-        <v>-28.57142857142864</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L472" t="n">
         <v>19.54</v>
@@ -24513,7 +24535,7 @@
         <v>35.89999999999992</v>
       </c>
       <c r="K473" t="n">
-        <v>-28.57142857142864</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L473" t="n">
         <v>19.51</v>
@@ -24564,7 +24586,7 @@
         <v>35.99999999999991</v>
       </c>
       <c r="K474" t="n">
-        <v>-20.00000000000024</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L474" t="n">
         <v>19.49</v>
@@ -24619,7 +24641,7 @@
         <v>35.99999999999991</v>
       </c>
       <c r="K475" t="n">
-        <v>-20.00000000000024</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L475" t="n">
         <v>19.45</v>
@@ -24676,7 +24698,7 @@
         <v>35.99999999999991</v>
       </c>
       <c r="K476" t="n">
-        <v>-20.00000000000024</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L476" t="n">
         <v>19.43</v>
@@ -24735,7 +24757,7 @@
         <v>36.09999999999991</v>
       </c>
       <c r="K477" t="n">
-        <v>-25.00000000000022</v>
+        <v>-33.33333333333393</v>
       </c>
       <c r="L477" t="n">
         <v>19.4</v>
@@ -24792,7 +24814,7 @@
         <v>36.09999999999991</v>
       </c>
       <c r="K478" t="n">
-        <v>-25.00000000000022</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L478" t="n">
         <v>19.38</v>
@@ -24847,7 +24869,7 @@
         <v>36.19999999999991</v>
       </c>
       <c r="K479" t="n">
-        <v>-25.00000000000033</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L479" t="n">
         <v>19.34</v>
@@ -24904,7 +24926,7 @@
         <v>36.29999999999991</v>
       </c>
       <c r="K480" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L480" t="n">
         <v>19.32</v>
@@ -24961,7 +24983,7 @@
         <v>36.39999999999991</v>
       </c>
       <c r="K481" t="n">
-        <v>-29.41176470588243</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L481" t="n">
         <v>19.31</v>
@@ -25018,7 +25040,7 @@
         <v>36.39999999999991</v>
       </c>
       <c r="K482" t="n">
-        <v>-37.50000000000022</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L482" t="n">
         <v>19.3</v>
@@ -25075,7 +25097,7 @@
         <v>36.39999999999991</v>
       </c>
       <c r="K483" t="n">
-        <v>-28.57142857142875</v>
+        <v>-50</v>
       </c>
       <c r="L483" t="n">
         <v>19.29</v>
@@ -25132,7 +25154,7 @@
         <v>36.49999999999991</v>
       </c>
       <c r="K484" t="n">
-        <v>-20.00000000000005</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L484" t="n">
         <v>19.28</v>
@@ -25189,7 +25211,7 @@
         <v>36.49999999999991</v>
       </c>
       <c r="K485" t="n">
-        <v>-38.46153846153855</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L485" t="n">
         <v>19.27</v>
@@ -25246,7 +25268,7 @@
         <v>36.49999999999991</v>
       </c>
       <c r="K486" t="n">
-        <v>-27.27272727272748</v>
+        <v>0</v>
       </c>
       <c r="L486" t="n">
         <v>19.26</v>
@@ -25303,7 +25325,7 @@
         <v>36.59999999999991</v>
       </c>
       <c r="K487" t="n">
-        <v>-16.66666666666706</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L487" t="n">
         <v>19.27</v>
@@ -25360,7 +25382,7 @@
         <v>36.89999999999991</v>
       </c>
       <c r="K488" t="n">
-        <v>-28.57142857142879</v>
+        <v>-14.28571428571407</v>
       </c>
       <c r="L488" t="n">
         <v>19.25</v>
@@ -25417,7 +25439,7 @@
         <v>37.09999999999991</v>
       </c>
       <c r="K489" t="n">
-        <v>-20.00000000000024</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>19.26</v>
@@ -25474,7 +25496,7 @@
         <v>37.19999999999991</v>
       </c>
       <c r="K490" t="n">
-        <v>-20.00000000000024</v>
+        <v>0</v>
       </c>
       <c r="L490" t="n">
         <v>19.25</v>
@@ -25531,7 +25553,7 @@
         <v>37.19999999999991</v>
       </c>
       <c r="K491" t="n">
-        <v>-7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>19.25</v>
@@ -25588,7 +25610,7 @@
         <v>37.19999999999991</v>
       </c>
       <c r="K492" t="n">
-        <v>-7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>19.25</v>
@@ -25645,7 +25667,7 @@
         <v>37.29999999999991</v>
       </c>
       <c r="K493" t="n">
-        <v>-14.28571428571432</v>
+        <v>-25</v>
       </c>
       <c r="L493" t="n">
         <v>19.24</v>
@@ -25702,7 +25724,7 @@
         <v>37.29999999999991</v>
       </c>
       <c r="K494" t="n">
-        <v>-23.07692307692291</v>
+        <v>-25</v>
       </c>
       <c r="L494" t="n">
         <v>19.22</v>
@@ -25759,7 +25781,7 @@
         <v>37.29999999999991</v>
       </c>
       <c r="K495" t="n">
-        <v>-23.07692307692291</v>
+        <v>-25</v>
       </c>
       <c r="L495" t="n">
         <v>19.2</v>
@@ -25816,7 +25838,7 @@
         <v>37.29999999999991</v>
       </c>
       <c r="K496" t="n">
-        <v>-23.07692307692291</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L496" t="n">
         <v>19.17999999999999</v>
@@ -25873,7 +25895,7 @@
         <v>37.39999999999991</v>
       </c>
       <c r="K497" t="n">
-        <v>-7.692307692307819</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L497" t="n">
         <v>19.15999999999999</v>
@@ -25924,7 +25946,7 @@
         <v>37.39999999999991</v>
       </c>
       <c r="K498" t="n">
-        <v>-7.692307692307819</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L498" t="n">
         <v>19.16999999999999</v>
@@ -25975,7 +25997,7 @@
         <v>37.4999999999999</v>
       </c>
       <c r="K499" t="n">
-        <v>-7.692307692307587</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L499" t="n">
         <v>19.14999999999999</v>
@@ -26026,7 +26048,7 @@
         <v>37.5999999999999</v>
       </c>
       <c r="K500" t="n">
-        <v>-23.07692307692331</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L500" t="n">
         <v>19.12999999999999</v>
@@ -26128,7 +26150,7 @@
         <v>37.7999999999999</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L502" t="n">
         <v>19.12999999999999</v>
@@ -26179,7 +26201,7 @@
         <v>37.8999999999999</v>
       </c>
       <c r="K503" t="n">
-        <v>6.666666666666825</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L503" t="n">
         <v>19.14999999999999</v>
@@ -26230,7 +26252,7 @@
         <v>38.09999999999989</v>
       </c>
       <c r="K504" t="n">
-        <v>-12.50000000000011</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>19.14999999999999</v>
@@ -26281,7 +26303,7 @@
         <v>38.1999999999999</v>
       </c>
       <c r="K505" t="n">
-        <v>-17.64705882352965</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L505" t="n">
         <v>19.13999999999999</v>
@@ -26332,7 +26354,7 @@
         <v>38.1999999999999</v>
       </c>
       <c r="K506" t="n">
-        <v>-17.64705882352965</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L506" t="n">
         <v>19.12999999999999</v>
@@ -26383,7 +26405,7 @@
         <v>38.2999999999999</v>
       </c>
       <c r="K507" t="n">
-        <v>-17.64705882352936</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L507" t="n">
         <v>19.11999999999999</v>
@@ -26485,7 +26507,7 @@
         <v>38.2999999999999</v>
       </c>
       <c r="K509" t="n">
-        <v>-16.66666666666677</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L509" t="n">
         <v>19.10999999999999</v>
@@ -26536,7 +26558,7 @@
         <v>38.3999999999999</v>
       </c>
       <c r="K510" t="n">
-        <v>-16.66666666666677</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L510" t="n">
         <v>19.10999999999999</v>
@@ -26587,7 +26609,7 @@
         <v>38.4999999999999</v>
       </c>
       <c r="K511" t="n">
-        <v>-23.07692307692331</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L511" t="n">
         <v>19.07999999999999</v>
@@ -26638,7 +26660,7 @@
         <v>38.5999999999999</v>
       </c>
       <c r="K512" t="n">
-        <v>-14.28571428571432</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L512" t="n">
         <v>19.06</v>
@@ -26740,7 +26762,7 @@
         <v>38.6999999999999</v>
       </c>
       <c r="K514" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L514" t="n">
         <v>19.04</v>
@@ -26791,7 +26813,7 @@
         <v>38.6999999999999</v>
       </c>
       <c r="K515" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L515" t="n">
         <v>19.04999999999999</v>
@@ -26893,7 +26915,7 @@
         <v>38.6999999999999</v>
       </c>
       <c r="K517" t="n">
-        <v>-7.692307692307546</v>
+        <v>0</v>
       </c>
       <c r="L517" t="n">
         <v>19.06</v>
@@ -26944,7 +26966,7 @@
         <v>38.7999999999999</v>
       </c>
       <c r="K518" t="n">
-        <v>0</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L518" t="n">
         <v>19.06999999999999</v>
@@ -26995,7 +27017,7 @@
         <v>38.7999999999999</v>
       </c>
       <c r="K519" t="n">
-        <v>7.692307692307546</v>
+        <v>50</v>
       </c>
       <c r="L519" t="n">
         <v>19.07999999999999</v>
@@ -27046,7 +27068,7 @@
         <v>38.7999999999999</v>
       </c>
       <c r="K520" t="n">
-        <v>16.66666666666666</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L520" t="n">
         <v>19.09999999999999</v>
@@ -27097,7 +27119,7 @@
         <v>38.89999999999989</v>
       </c>
       <c r="K521" t="n">
-        <v>-9.090909090908944</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L521" t="n">
         <v>19.11999999999999</v>
@@ -27148,7 +27170,7 @@
         <v>38.99999999999989</v>
       </c>
       <c r="K522" t="n">
-        <v>0</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L522" t="n">
         <v>19.13999999999999</v>
@@ -27199,7 +27221,7 @@
         <v>38.99999999999989</v>
       </c>
       <c r="K523" t="n">
-        <v>-9.090909090909326</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L523" t="n">
         <v>19.14999999999999</v>
@@ -27250,7 +27272,7 @@
         <v>39.19999999999989</v>
       </c>
       <c r="K524" t="n">
-        <v>-9.090909090909268</v>
+        <v>-20.00000000000085</v>
       </c>
       <c r="L524" t="n">
         <v>19.13999999999999</v>
@@ -27301,7 +27323,7 @@
         <v>39.39999999999989</v>
       </c>
       <c r="K525" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L525" t="n">
         <v>19.14999999999999</v>
@@ -27352,7 +27374,7 @@
         <v>39.39999999999989</v>
       </c>
       <c r="K526" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L526" t="n">
         <v>19.15999999999999</v>
@@ -27403,7 +27425,7 @@
         <v>39.39999999999989</v>
       </c>
       <c r="K527" t="n">
-        <v>9.090909090908944</v>
+        <v>0</v>
       </c>
       <c r="L527" t="n">
         <v>19.16999999999999</v>
@@ -27454,7 +27476,7 @@
         <v>39.49999999999989</v>
       </c>
       <c r="K528" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L528" t="n">
         <v>19.15999999999999</v>
@@ -27505,7 +27527,7 @@
         <v>39.49999999999989</v>
       </c>
       <c r="K529" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L529" t="n">
         <v>19.14999999999999</v>
@@ -27556,7 +27578,7 @@
         <v>39.49999999999989</v>
       </c>
       <c r="K530" t="n">
-        <v>9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L530" t="n">
         <v>19.13999999999999</v>
@@ -27607,7 +27629,7 @@
         <v>39.49999999999989</v>
       </c>
       <c r="K531" t="n">
-        <v>20.00000000000057</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L531" t="n">
         <v>19.13999999999999</v>
@@ -27658,7 +27680,7 @@
         <v>39.49999999999989</v>
       </c>
       <c r="K532" t="n">
-        <v>11.11111111111146</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L532" t="n">
         <v>19.12999999999999</v>
@@ -27709,7 +27731,7 @@
         <v>39.59999999999988</v>
       </c>
       <c r="K533" t="n">
-        <v>11.11111111111116</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L533" t="n">
         <v>19.12999999999999</v>
@@ -27760,7 +27782,7 @@
         <v>39.69999999999987</v>
       </c>
       <c r="K534" t="n">
-        <v>0</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L534" t="n">
         <v>19.13999999999999</v>
@@ -27811,7 +27833,7 @@
         <v>39.79999999999987</v>
       </c>
       <c r="K535" t="n">
-        <v>9.090909090909179</v>
+        <v>0</v>
       </c>
       <c r="L535" t="n">
         <v>19.13999999999999</v>
@@ -27862,7 +27884,7 @@
         <v>39.79999999999987</v>
       </c>
       <c r="K536" t="n">
-        <v>9.090909090909179</v>
+        <v>0</v>
       </c>
       <c r="L536" t="n">
         <v>19.13999999999999</v>
@@ -27913,7 +27935,7 @@
         <v>39.79999999999987</v>
       </c>
       <c r="K537" t="n">
-        <v>9.090909090909179</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L537" t="n">
         <v>19.13999999999999</v>
@@ -27964,7 +27986,7 @@
         <v>39.89999999999986</v>
       </c>
       <c r="K538" t="n">
-        <v>-9.090909090909179</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>19.13999999999999</v>
@@ -28015,7 +28037,7 @@
         <v>39.99999999999986</v>
       </c>
       <c r="K539" t="n">
-        <v>-16.66666666666706</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L539" t="n">
         <v>19.12999999999999</v>
@@ -28066,7 +28088,7 @@
         <v>40.09999999999987</v>
       </c>
       <c r="K540" t="n">
-        <v>-7.692307692307714</v>
+        <v>0</v>
       </c>
       <c r="L540" t="n">
         <v>19.12999999999999</v>
@@ -28117,7 +28139,7 @@
         <v>40.19999999999986</v>
       </c>
       <c r="K541" t="n">
-        <v>7.692307692307714</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L541" t="n">
         <v>19.13999999999999</v>
@@ -28219,7 +28241,7 @@
         <v>40.29999999999986</v>
       </c>
       <c r="K543" t="n">
-        <v>7.692307692307944</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L543" t="n">
         <v>19.15999999999999</v>
@@ -28270,7 +28292,7 @@
         <v>40.29999999999986</v>
       </c>
       <c r="K544" t="n">
-        <v>27.27272727272801</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L544" t="n">
         <v>19.17999999999999</v>
@@ -28321,7 +28343,7 @@
         <v>40.29999999999986</v>
       </c>
       <c r="K545" t="n">
-        <v>11.11111111111164</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L545" t="n">
         <v>19.18999999999999</v>
@@ -28372,7 +28394,7 @@
         <v>40.49999999999986</v>
       </c>
       <c r="K546" t="n">
-        <v>-9.090909090909179</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L546" t="n">
         <v>19.18</v>
@@ -28423,7 +28445,7 @@
         <v>40.59999999999986</v>
       </c>
       <c r="K547" t="n">
-        <v>-16.66666666666706</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L547" t="n">
         <v>19.16</v>
@@ -28474,7 +28496,7 @@
         <v>40.59999999999986</v>
       </c>
       <c r="K548" t="n">
-        <v>-9.090909090909443</v>
+        <v>0</v>
       </c>
       <c r="L548" t="n">
         <v>19.15</v>
@@ -28525,7 +28547,7 @@
         <v>40.79999999999986</v>
       </c>
       <c r="K549" t="n">
-        <v>7.692307692307714</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L549" t="n">
         <v>19.16999999999999</v>
@@ -28576,7 +28598,7 @@
         <v>40.79999999999986</v>
       </c>
       <c r="K550" t="n">
-        <v>7.692307692307714</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>19.18</v>
@@ -28627,7 +28649,7 @@
         <v>40.89999999999985</v>
       </c>
       <c r="K551" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L551" t="n">
         <v>19.16999999999999</v>
@@ -28678,7 +28700,7 @@
         <v>41.09999999999985</v>
       </c>
       <c r="K552" t="n">
-        <v>12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>19.18</v>
@@ -28729,7 +28751,7 @@
         <v>41.09999999999985</v>
       </c>
       <c r="K553" t="n">
-        <v>6.666666666666887</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>19.18</v>
@@ -28780,7 +28802,7 @@
         <v>41.09999999999985</v>
       </c>
       <c r="K554" t="n">
-        <v>14.28571428571447</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>19.18</v>
@@ -28831,7 +28853,7 @@
         <v>41.29999999999986</v>
       </c>
       <c r="K555" t="n">
-        <v>-6.666666666666588</v>
+        <v>0</v>
       </c>
       <c r="L555" t="n">
         <v>19.16</v>
@@ -28882,7 +28904,7 @@
         <v>41.49999999999986</v>
       </c>
       <c r="K556" t="n">
-        <v>5.882352941176594</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L556" t="n">
         <v>19.18</v>
@@ -28933,7 +28955,7 @@
         <v>41.49999999999986</v>
       </c>
       <c r="K557" t="n">
-        <v>5.882352941176594</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L557" t="n">
         <v>19.21</v>
@@ -28984,7 +29006,7 @@
         <v>41.49999999999986</v>
       </c>
       <c r="K558" t="n">
-        <v>12.5</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L558" t="n">
         <v>19.24</v>
@@ -29035,7 +29057,7 @@
         <v>41.49999999999986</v>
       </c>
       <c r="K559" t="n">
-        <v>20.00000000000014</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L559" t="n">
         <v>19.25</v>
@@ -29137,7 +29159,7 @@
         <v>41.89999999999986</v>
       </c>
       <c r="K561" t="n">
-        <v>5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L561" t="n">
         <v>19.26000000000001</v>
@@ -29188,7 +29210,7 @@
         <v>41.89999999999986</v>
       </c>
       <c r="K562" t="n">
-        <v>5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L562" t="n">
         <v>19.26000000000001</v>
@@ -29239,7 +29261,7 @@
         <v>42.09999999999987</v>
       </c>
       <c r="K563" t="n">
-        <v>-11.11111111111104</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L563" t="n">
         <v>19.24</v>
@@ -29290,7 +29312,7 @@
         <v>42.29999999999987</v>
       </c>
       <c r="K564" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L564" t="n">
         <v>19.24</v>
@@ -29392,7 +29414,7 @@
         <v>42.29999999999987</v>
       </c>
       <c r="K566" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L566" t="n">
         <v>19.26000000000001</v>
@@ -29443,7 +29465,7 @@
         <v>42.29999999999987</v>
       </c>
       <c r="K567" t="n">
-        <v>17.64705882352935</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>19.26000000000001</v>
@@ -29494,7 +29516,7 @@
         <v>42.29999999999987</v>
       </c>
       <c r="K568" t="n">
-        <v>17.64705882352935</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
         <v>19.26000000000001</v>
@@ -29545,7 +29567,7 @@
         <v>42.29999999999987</v>
       </c>
       <c r="K569" t="n">
-        <v>6.666666666666698</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L569" t="n">
         <v>19.26000000000001</v>
@@ -29596,7 +29618,7 @@
         <v>42.39999999999987</v>
       </c>
       <c r="K570" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L570" t="n">
         <v>19.27</v>
@@ -29647,7 +29669,7 @@
         <v>42.49999999999987</v>
       </c>
       <c r="K571" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L571" t="n">
         <v>19.25</v>
@@ -29698,7 +29720,7 @@
         <v>42.49999999999987</v>
       </c>
       <c r="K572" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>19.23</v>
@@ -29749,7 +29771,7 @@
         <v>42.59999999999987</v>
       </c>
       <c r="K573" t="n">
-        <v>-19.99999999999976</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L573" t="n">
         <v>19.22</v>
@@ -29800,7 +29822,7 @@
         <v>42.69999999999987</v>
       </c>
       <c r="K574" t="n">
-        <v>-12.49999999999978</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L574" t="n">
         <v>19.2</v>
@@ -29851,7 +29873,7 @@
         <v>42.69999999999987</v>
       </c>
       <c r="K575" t="n">
-        <v>0</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L575" t="n">
         <v>19.18</v>
@@ -29902,7 +29924,7 @@
         <v>42.99999999999987</v>
       </c>
       <c r="K576" t="n">
-        <v>-33.33333333333302</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L576" t="n">
         <v>19.13</v>
@@ -29953,7 +29975,7 @@
         <v>43.29999999999987</v>
       </c>
       <c r="K577" t="n">
-        <v>-11.111111111111</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L577" t="n">
         <v>19.11</v>
@@ -30004,7 +30026,7 @@
         <v>43.29999999999987</v>
       </c>
       <c r="K578" t="n">
-        <v>-11.111111111111</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L578" t="n">
         <v>19.09</v>
@@ -30055,7 +30077,7 @@
         <v>43.29999999999987</v>
       </c>
       <c r="K579" t="n">
-        <v>-11.111111111111</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L579" t="n">
         <v>19.06999999999999</v>
@@ -30106,7 +30128,7 @@
         <v>43.49999999999987</v>
       </c>
       <c r="K580" t="n">
-        <v>-11.1111111111112</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L580" t="n">
         <v>19.04</v>
@@ -30157,7 +30179,7 @@
         <v>43.59999999999987</v>
       </c>
       <c r="K581" t="n">
-        <v>-17.64705882352935</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L581" t="n">
         <v>19.02999999999999</v>
@@ -30208,7 +30230,7 @@
         <v>43.69999999999987</v>
       </c>
       <c r="K582" t="n">
-        <v>-22.2222222222222</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L582" t="n">
         <v>19.01</v>
@@ -30259,7 +30281,7 @@
         <v>43.79999999999988</v>
       </c>
       <c r="K583" t="n">
-        <v>-5.88235294117652</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L583" t="n">
         <v>19.01</v>
@@ -30310,7 +30332,7 @@
         <v>43.79999999999988</v>
       </c>
       <c r="K584" t="n">
-        <v>-19.99999999999995</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L584" t="n">
         <v>19</v>
@@ -30361,7 +30383,7 @@
         <v>43.89999999999988</v>
       </c>
       <c r="K585" t="n">
-        <v>-25</v>
+        <v>11.1111111111108</v>
       </c>
       <c r="L585" t="n">
         <v>18.98</v>
@@ -30412,7 +30434,7 @@
         <v>43.89999999999988</v>
       </c>
       <c r="K586" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L586" t="n">
         <v>18.99</v>
@@ -30463,7 +30485,7 @@
         <v>43.89999999999988</v>
       </c>
       <c r="K587" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L587" t="n">
         <v>18.97</v>
@@ -30514,7 +30536,7 @@
         <v>43.99999999999988</v>
       </c>
       <c r="K588" t="n">
-        <v>-17.64705882352935</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L588" t="n">
         <v>18.96</v>
@@ -30565,7 +30587,7 @@
         <v>44.09999999999988</v>
       </c>
       <c r="K589" t="n">
-        <v>-22.2222222222222</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>18.94</v>
@@ -30616,7 +30638,7 @@
         <v>44.29999999999988</v>
       </c>
       <c r="K590" t="n">
-        <v>-26.31578947368403</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L590" t="n">
         <v>18.92</v>
@@ -30667,7 +30689,7 @@
         <v>44.29999999999988</v>
       </c>
       <c r="K591" t="n">
-        <v>-22.2222222222222</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L591" t="n">
         <v>18.89</v>
@@ -30718,7 +30740,7 @@
         <v>44.39999999999988</v>
       </c>
       <c r="K592" t="n">
-        <v>-15.78947368421046</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L592" t="n">
         <v>18.88</v>
@@ -30820,7 +30842,7 @@
         <v>44.79999999999988</v>
       </c>
       <c r="K594" t="n">
-        <v>-14.28571428571426</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L594" t="n">
         <v>18.86</v>
@@ -30871,7 +30893,7 @@
         <v>44.99999999999989</v>
       </c>
       <c r="K595" t="n">
-        <v>-4.347826086956561</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L595" t="n">
         <v>18.87</v>
@@ -30922,7 +30944,7 @@
         <v>45.09999999999989</v>
       </c>
       <c r="K596" t="n">
-        <v>4.761904761904625</v>
+        <v>0</v>
       </c>
       <c r="L596" t="n">
         <v>18.87</v>
@@ -30973,7 +30995,7 @@
         <v>45.09999999999989</v>
       </c>
       <c r="K597" t="n">
-        <v>-11.11111111111116</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L597" t="n">
         <v>18.87</v>
@@ -31024,7 +31046,7 @@
         <v>45.19999999999989</v>
       </c>
       <c r="K598" t="n">
-        <v>-15.7894736842104</v>
+        <v>-9.090909090908825</v>
       </c>
       <c r="L598" t="n">
         <v>18.85</v>
@@ -31075,7 +31097,7 @@
         <v>45.29999999999988</v>
       </c>
       <c r="K599" t="n">
-        <v>-10.00000000000007</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L599" t="n">
         <v>18.85</v>
@@ -31126,7 +31148,7 @@
         <v>45.39999999999988</v>
       </c>
       <c r="K600" t="n">
-        <v>-5.263157894736715</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L600" t="n">
         <v>18.86</v>
@@ -31177,7 +31199,7 @@
         <v>45.39999999999988</v>
       </c>
       <c r="K601" t="n">
-        <v>-11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L601" t="n">
         <v>18.87</v>
@@ -31228,7 +31250,7 @@
         <v>45.39999999999988</v>
       </c>
       <c r="K602" t="n">
-        <v>-5.882352941176335</v>
+        <v>-25</v>
       </c>
       <c r="L602" t="n">
         <v>18.87</v>
@@ -31279,7 +31301,7 @@
         <v>45.49999999999988</v>
       </c>
       <c r="K603" t="n">
-        <v>-17.64705882352942</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L603" t="n">
         <v>18.84</v>
@@ -31330,7 +31352,7 @@
         <v>45.59999999999988</v>
       </c>
       <c r="K604" t="n">
-        <v>-11.11111111111104</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L604" t="n">
         <v>18.84</v>
@@ -31381,7 +31403,7 @@
         <v>45.59999999999988</v>
       </c>
       <c r="K605" t="n">
-        <v>-5.882352941176335</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L605" t="n">
         <v>18.82</v>
@@ -31483,7 +31505,7 @@
         <v>45.79999999999988</v>
       </c>
       <c r="K607" t="n">
-        <v>5.263157894736921</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L607" t="n">
         <v>18.83000000000001</v>
@@ -31534,7 +31556,7 @@
         <v>45.79999999999988</v>
       </c>
       <c r="K608" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L608" t="n">
         <v>18.85</v>
@@ -31585,7 +31607,7 @@
         <v>45.79999999999988</v>
       </c>
       <c r="K609" t="n">
-        <v>5.882352941176569</v>
+        <v>50</v>
       </c>
       <c r="L609" t="n">
         <v>18.86</v>
@@ -31636,7 +31658,7 @@
         <v>45.79999999999988</v>
       </c>
       <c r="K610" t="n">
-        <v>20.00000000000014</v>
+        <v>50</v>
       </c>
       <c r="L610" t="n">
         <v>18.88</v>
@@ -31687,7 +31709,7 @@
         <v>45.89999999999988</v>
       </c>
       <c r="K611" t="n">
-        <v>25.00000000000022</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L611" t="n">
         <v>18.91</v>
@@ -31738,7 +31760,7 @@
         <v>45.89999999999988</v>
       </c>
       <c r="K612" t="n">
-        <v>20.00000000000014</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L612" t="n">
         <v>18.94</v>
@@ -31789,7 +31811,7 @@
         <v>45.99999999999987</v>
       </c>
       <c r="K613" t="n">
-        <v>14.28571428571432</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L613" t="n">
         <v>18.99</v>
@@ -31840,7 +31862,7 @@
         <v>45.99999999999987</v>
       </c>
       <c r="K614" t="n">
-        <v>33.33333333333353</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L614" t="n">
         <v>19.02999999999999</v>
@@ -31891,7 +31913,7 @@
         <v>45.99999999999987</v>
       </c>
       <c r="K615" t="n">
-        <v>20.00000000000021</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L615" t="n">
         <v>19.06999999999999</v>
@@ -31942,7 +31964,7 @@
         <v>46.09999999999987</v>
       </c>
       <c r="K616" t="n">
-        <v>40.00000000000078</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L616" t="n">
         <v>19.10999999999999</v>
@@ -31993,7 +32015,7 @@
         <v>46.29999999999987</v>
       </c>
       <c r="K617" t="n">
-        <v>16.66666666666716</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L617" t="n">
         <v>19.11999999999999</v>
@@ -32044,7 +32066,7 @@
         <v>46.29999999999987</v>
       </c>
       <c r="K618" t="n">
-        <v>27.27272727272783</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L618" t="n">
         <v>19.12999999999999</v>
@@ -32146,7 +32168,7 @@
         <v>46.29999999999987</v>
       </c>
       <c r="K620" t="n">
-        <v>33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L620" t="n">
         <v>19.14999999999999</v>
@@ -32197,7 +32219,7 @@
         <v>46.29999999999987</v>
       </c>
       <c r="K621" t="n">
-        <v>33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L621" t="n">
         <v>19.14999999999999</v>
@@ -32248,7 +32270,7 @@
         <v>46.29999999999987</v>
       </c>
       <c r="K622" t="n">
-        <v>33.33333333333373</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L622" t="n">
         <v>19.14999999999999</v>
@@ -32299,7 +32321,7 @@
         <v>46.39999999999986</v>
       </c>
       <c r="K623" t="n">
-        <v>55.55555555555652</v>
+        <v>0</v>
       </c>
       <c r="L623" t="n">
         <v>19.14999999999999</v>
@@ -32350,7 +32372,7 @@
         <v>46.39999999999986</v>
       </c>
       <c r="K624" t="n">
-        <v>50.00000000000089</v>
+        <v>0</v>
       </c>
       <c r="L624" t="n">
         <v>19.14999999999999</v>
@@ -32401,7 +32423,7 @@
         <v>46.39999999999986</v>
       </c>
       <c r="K625" t="n">
-        <v>50.00000000000089</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L625" t="n">
         <v>19.14999999999999</v>
@@ -32452,7 +32474,7 @@
         <v>46.49999999999986</v>
       </c>
       <c r="K626" t="n">
-        <v>25.00000000000089</v>
+        <v>0</v>
       </c>
       <c r="L626" t="n">
         <v>19.12999999999999</v>
@@ -32503,7 +32525,7 @@
         <v>46.49999999999986</v>
       </c>
       <c r="K627" t="n">
-        <v>14.28571428571487</v>
+        <v>0</v>
       </c>
       <c r="L627" t="n">
         <v>19.12999999999999</v>
@@ -32554,7 +32576,7 @@
         <v>46.49999999999986</v>
       </c>
       <c r="K628" t="n">
-        <v>14.28571428571487</v>
+        <v>0</v>
       </c>
       <c r="L628" t="n">
         <v>19.12999999999999</v>
@@ -32605,7 +32627,7 @@
         <v>46.49999999999986</v>
       </c>
       <c r="K629" t="n">
-        <v>14.28571428571487</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>19.12999999999999</v>
@@ -32656,7 +32678,7 @@
         <v>46.59999999999986</v>
       </c>
       <c r="K630" t="n">
-        <v>0</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L630" t="n">
         <v>19.11999999999999</v>
@@ -32707,7 +32729,7 @@
         <v>46.59999999999986</v>
       </c>
       <c r="K631" t="n">
-        <v>-14.28571428571487</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L631" t="n">
         <v>19.10999999999999</v>
@@ -32758,7 +32780,7 @@
         <v>46.69999999999986</v>
       </c>
       <c r="K632" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L632" t="n">
         <v>19.10999999999999</v>
@@ -32809,7 +32831,7 @@
         <v>46.69999999999986</v>
       </c>
       <c r="K633" t="n">
-        <v>-14.28571428571421</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L633" t="n">
         <v>19.09999999999999</v>
@@ -32860,7 +32882,7 @@
         <v>46.79999999999986</v>
       </c>
       <c r="K634" t="n">
-        <v>-25.00000000000022</v>
+        <v>-50</v>
       </c>
       <c r="L634" t="n">
         <v>19.07999999999999</v>
@@ -32911,7 +32933,7 @@
         <v>46.89999999999986</v>
       </c>
       <c r="K635" t="n">
-        <v>-11.11111111111098</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
         <v>19.06999999999999</v>
@@ -32962,7 +32984,7 @@
         <v>46.89999999999986</v>
       </c>
       <c r="K636" t="n">
-        <v>-25.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L636" t="n">
         <v>19.06999999999999</v>
@@ -33115,7 +33137,7 @@
         <v>46.99999999999986</v>
       </c>
       <c r="K639" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>19.06</v>
@@ -33166,7 +33188,7 @@
         <v>47.09999999999987</v>
       </c>
       <c r="K640" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L640" t="n">
         <v>19.06999999999999</v>
@@ -33268,7 +33290,7 @@
         <v>47.19999999999986</v>
       </c>
       <c r="K642" t="n">
-        <v>11.11111111111098</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L642" t="n">
         <v>19.08999999999999</v>
@@ -33319,7 +33341,7 @@
         <v>47.29999999999986</v>
       </c>
       <c r="K643" t="n">
-        <v>-11.11111111111098</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L643" t="n">
         <v>19.08999999999999</v>
@@ -33370,7 +33392,7 @@
         <v>47.39999999999985</v>
       </c>
       <c r="K644" t="n">
-        <v>0</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L644" t="n">
         <v>19.10999999999999</v>
@@ -33421,7 +33443,7 @@
         <v>47.39999999999985</v>
       </c>
       <c r="K645" t="n">
-        <v>0</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L645" t="n">
         <v>19.11999999999999</v>
@@ -33472,7 +33494,7 @@
         <v>47.39999999999985</v>
       </c>
       <c r="K646" t="n">
-        <v>11.11111111111098</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L646" t="n">
         <v>19.12999999999999</v>
@@ -33523,7 +33545,7 @@
         <v>47.59999999999985</v>
       </c>
       <c r="K647" t="n">
-        <v>-9.090909090909268</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L647" t="n">
         <v>19.11999999999999</v>
@@ -33574,7 +33596,7 @@
         <v>47.69999999999985</v>
       </c>
       <c r="K648" t="n">
-        <v>0</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L648" t="n">
         <v>19.11999999999999</v>
@@ -33625,7 +33647,7 @@
         <v>47.79999999999986</v>
       </c>
       <c r="K649" t="n">
-        <v>-7.692307692307819</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L649" t="n">
         <v>19.11999999999999</v>
@@ -33676,7 +33698,7 @@
         <v>47.89999999999986</v>
       </c>
       <c r="K650" t="n">
-        <v>7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L650" t="n">
         <v>19.11999999999999</v>
@@ -33727,7 +33749,7 @@
         <v>47.89999999999986</v>
       </c>
       <c r="K651" t="n">
-        <v>7.692307692307819</v>
+        <v>-14.28571428571407</v>
       </c>
       <c r="L651" t="n">
         <v>19.11999999999999</v>
@@ -33829,7 +33851,7 @@
         <v>47.89999999999986</v>
       </c>
       <c r="K653" t="n">
-        <v>0</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L653" t="n">
         <v>19.10999999999999</v>
@@ -33880,7 +33902,7 @@
         <v>47.89999999999986</v>
       </c>
       <c r="K654" t="n">
-        <v>9.090909090909268</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L654" t="n">
         <v>19.09999999999999</v>
@@ -33931,7 +33953,7 @@
         <v>47.89999999999986</v>
       </c>
       <c r="K655" t="n">
-        <v>0</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L655" t="n">
         <v>19.08999999999999</v>
@@ -33982,7 +34004,7 @@
         <v>47.99999999999986</v>
       </c>
       <c r="K656" t="n">
-        <v>9.090909090908944</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L656" t="n">
         <v>19.08999999999999</v>
@@ -34033,7 +34055,7 @@
         <v>47.99999999999986</v>
       </c>
       <c r="K657" t="n">
-        <v>9.090909090908944</v>
+        <v>33.33333333333215</v>
       </c>
       <c r="L657" t="n">
         <v>19.10999999999999</v>
@@ -34084,7 +34106,7 @@
         <v>48.19999999999986</v>
       </c>
       <c r="K658" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L658" t="n">
         <v>19.09999999999999</v>
@@ -34135,7 +34157,7 @@
         <v>48.39999999999986</v>
       </c>
       <c r="K659" t="n">
-        <v>14.28571428571425</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L659" t="n">
         <v>19.11999999999999</v>
@@ -34186,7 +34208,7 @@
         <v>48.39999999999986</v>
       </c>
       <c r="K660" t="n">
-        <v>7.692307692307546</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L660" t="n">
         <v>19.12999999999999</v>
@@ -34237,7 +34259,7 @@
         <v>48.39999999999986</v>
       </c>
       <c r="K661" t="n">
-        <v>7.692307692307546</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L661" t="n">
         <v>19.13999999999999</v>
@@ -34288,7 +34310,7 @@
         <v>48.39999999999986</v>
       </c>
       <c r="K662" t="n">
-        <v>0</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L662" t="n">
         <v>19.14999999999999</v>
@@ -34390,7 +34412,7 @@
         <v>48.59999999999985</v>
       </c>
       <c r="K664" t="n">
-        <v>0</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L664" t="n">
         <v>19.15999999999999</v>
@@ -34441,7 +34463,7 @@
         <v>48.69999999999985</v>
       </c>
       <c r="K665" t="n">
-        <v>7.692307692307776</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L665" t="n">
         <v>19.17999999999999</v>
@@ -34492,7 +34514,7 @@
         <v>48.69999999999985</v>
       </c>
       <c r="K666" t="n">
-        <v>7.692307692307776</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L666" t="n">
         <v>19.18999999999999</v>
@@ -34543,7 +34565,7 @@
         <v>48.69999999999985</v>
       </c>
       <c r="K667" t="n">
-        <v>27.27272727272731</v>
+        <v>60.00000000000099</v>
       </c>
       <c r="L667" t="n">
         <v>19.2</v>
@@ -34594,7 +34616,7 @@
         <v>48.79999999999986</v>
       </c>
       <c r="K668" t="n">
-        <v>9.090909090908886</v>
+        <v>0</v>
       </c>
       <c r="L668" t="n">
         <v>19.21999999999999</v>
@@ -34645,7 +34667,7 @@
         <v>48.99999999999986</v>
       </c>
       <c r="K669" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L669" t="n">
         <v>19.2</v>
@@ -34696,7 +34718,7 @@
         <v>49.19999999999986</v>
       </c>
       <c r="K670" t="n">
-        <v>7.692307692307502</v>
+        <v>0</v>
       </c>
       <c r="L670" t="n">
         <v>19.2</v>
@@ -34747,7 +34769,7 @@
         <v>49.29999999999986</v>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L671" t="n">
         <v>19.18999999999999</v>
@@ -34849,7 +34871,7 @@
         <v>49.39999999999985</v>
       </c>
       <c r="K673" t="n">
-        <v>6.666666666666556</v>
+        <v>0</v>
       </c>
       <c r="L673" t="n">
         <v>19.18999999999999</v>
@@ -34900,7 +34922,7 @@
         <v>49.49999999999984</v>
       </c>
       <c r="K674" t="n">
-        <v>0</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L674" t="n">
         <v>19.18</v>
@@ -34951,7 +34973,7 @@
         <v>49.49999999999984</v>
       </c>
       <c r="K675" t="n">
-        <v>0</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L675" t="n">
         <v>19.15999999999999</v>
@@ -35002,7 +35024,7 @@
         <v>49.59999999999984</v>
       </c>
       <c r="K676" t="n">
-        <v>0</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L676" t="n">
         <v>19.14999999999999</v>
@@ -35104,7 +35126,7 @@
         <v>49.59999999999984</v>
       </c>
       <c r="K678" t="n">
-        <v>14.28571428571447</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L678" t="n">
         <v>19.13999999999999</v>
@@ -35206,7 +35228,7 @@
         <v>49.59999999999984</v>
       </c>
       <c r="K680" t="n">
-        <v>0</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L680" t="n">
         <v>19.15999999999999</v>
@@ -35257,7 +35279,7 @@
         <v>49.69999999999983</v>
       </c>
       <c r="K681" t="n">
-        <v>-7.692307692307714</v>
+        <v>0</v>
       </c>
       <c r="L681" t="n">
         <v>19.15999999999999</v>
@@ -35308,7 +35330,7 @@
         <v>49.69999999999983</v>
       </c>
       <c r="K682" t="n">
-        <v>-7.692307692307714</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L682" t="n">
         <v>19.15999999999999</v>
@@ -35410,7 +35432,7 @@
         <v>49.79999999999983</v>
       </c>
       <c r="K684" t="n">
-        <v>0</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L684" t="n">
         <v>19.15999999999999</v>
@@ -35461,7 +35483,7 @@
         <v>49.79999999999983</v>
       </c>
       <c r="K685" t="n">
-        <v>-9.090909090909443</v>
+        <v>0</v>
       </c>
       <c r="L685" t="n">
         <v>19.16999999999999</v>
@@ -35512,7 +35534,7 @@
         <v>49.89999999999982</v>
       </c>
       <c r="K686" t="n">
-        <v>-16.66666666666706</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L686" t="n">
         <v>19.15999999999999</v>
@@ -35563,7 +35585,7 @@
         <v>49.99999999999982</v>
       </c>
       <c r="K687" t="n">
-        <v>-7.692307692308028</v>
+        <v>0</v>
       </c>
       <c r="L687" t="n">
         <v>19.15999999999999</v>
@@ -35614,7 +35636,7 @@
         <v>50.09999999999981</v>
       </c>
       <c r="K688" t="n">
-        <v>-7.692307692307796</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L688" t="n">
         <v>19.14999999999999</v>
@@ -35665,7 +35687,7 @@
         <v>50.19999999999981</v>
       </c>
       <c r="K689" t="n">
-        <v>0</v>
+        <v>-33.33333333333471</v>
       </c>
       <c r="L689" t="n">
         <v>19.12999999999999</v>
@@ -35716,7 +35738,7 @@
         <v>50.29999999999981</v>
       </c>
       <c r="K690" t="n">
-        <v>-9.090909090909296</v>
+        <v>0</v>
       </c>
       <c r="L690" t="n">
         <v>19.11999999999999</v>
@@ -35869,7 +35891,7 @@
         <v>50.39999999999981</v>
       </c>
       <c r="K693" t="n">
-        <v>-20.00000000000064</v>
+        <v>-33.33333333333393</v>
       </c>
       <c r="L693" t="n">
         <v>19.10999999999999</v>
@@ -35920,7 +35942,7 @@
         <v>50.49999999999982</v>
       </c>
       <c r="K694" t="n">
-        <v>-20.00000000000085</v>
+        <v>-42.85714285714366</v>
       </c>
       <c r="L694" t="n">
         <v>19.07999999999999</v>
@@ -35971,7 +35993,7 @@
         <v>50.49999999999982</v>
       </c>
       <c r="K695" t="n">
-        <v>-20.00000000000085</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L695" t="n">
         <v>19.04999999999999</v>
@@ -36022,7 +36044,7 @@
         <v>50.69999999999982</v>
       </c>
       <c r="K696" t="n">
-        <v>-45.45454545454628</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L696" t="n">
         <v>19.00999999999999</v>
@@ -36073,7 +36095,7 @@
         <v>50.79999999999982</v>
       </c>
       <c r="K697" t="n">
-        <v>-33.33333333333373</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L697" t="n">
         <v>18.97</v>
@@ -36124,7 +36146,7 @@
         <v>50.99999999999982</v>
       </c>
       <c r="K698" t="n">
-        <v>-42.8571428571434</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L698" t="n">
         <v>18.91999999999999</v>
@@ -36175,7 +36197,7 @@
         <v>51.49999999999982</v>
       </c>
       <c r="K699" t="n">
-        <v>-5.263157894736794</v>
+        <v>0</v>
       </c>
       <c r="L699" t="n">
         <v>18.93</v>
@@ -36226,7 +36248,7 @@
         <v>52.09999999999981</v>
       </c>
       <c r="K700" t="n">
-        <v>20.00000000000023</v>
+        <v>33.33333333333326</v>
       </c>
       <c r="L700" t="n">
         <v>18.98999999999999</v>
@@ -36277,7 +36299,7 @@
         <v>52.09999999999981</v>
       </c>
       <c r="K701" t="n">
-        <v>25.00000000000015</v>
+        <v>33.33333333333326</v>
       </c>
       <c r="L701" t="n">
         <v>19.04999999999999</v>
@@ -36328,7 +36350,7 @@
         <v>52.19999999999981</v>
       </c>
       <c r="K702" t="n">
-        <v>28.00000000000021</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L702" t="n">
         <v>19.12</v>
@@ -36379,7 +36401,7 @@
         <v>52.39999999999981</v>
       </c>
       <c r="K703" t="n">
-        <v>18.5185185185187</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L703" t="n">
         <v>19.18</v>
@@ -36430,7 +36452,7 @@
         <v>52.49999999999981</v>
       </c>
       <c r="K704" t="n">
-        <v>11.11111111111121</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="L704" t="n">
         <v>19.23999999999999</v>
@@ -36481,7 +36503,7 @@
         <v>52.49999999999981</v>
       </c>
       <c r="K705" t="n">
-        <v>11.11111111111121</v>
+        <v>44.44444444444473</v>
       </c>
       <c r="L705" t="n">
         <v>19.29999999999999</v>
@@ -36532,7 +36554,7 @@
         <v>52.49999999999981</v>
       </c>
       <c r="K706" t="n">
-        <v>15.3846153846154</v>
+        <v>41.17647058823552</v>
       </c>
       <c r="L706" t="n">
         <v>19.38</v>
@@ -36583,7 +36605,7 @@
         <v>52.49999999999981</v>
       </c>
       <c r="K707" t="n">
-        <v>12.00000000000006</v>
+        <v>60.00000000000018</v>
       </c>
       <c r="L707" t="n">
         <v>19.45</v>
@@ -36634,7 +36656,7 @@
         <v>52.6999999999998</v>
       </c>
       <c r="K708" t="n">
-        <v>7.692307692307682</v>
+        <v>16.66666666666677</v>
       </c>
       <c r="L708" t="n">
         <v>19.52</v>
@@ -36685,7 +36707,7 @@
         <v>52.6999999999998</v>
       </c>
       <c r="K709" t="n">
-        <v>12.00000000000006</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L709" t="n">
         <v>19.54</v>
@@ -36736,7 +36758,7 @@
         <v>53.1999999999998</v>
       </c>
       <c r="K710" t="n">
-        <v>24.1379310344828</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L710" t="n">
         <v>19.55</v>
@@ -36787,7 +36809,7 @@
         <v>53.29999999999981</v>
       </c>
       <c r="K711" t="n">
-        <v>19.99999999999998</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L711" t="n">
         <v>19.55</v>
@@ -36838,7 +36860,7 @@
         <v>53.29999999999981</v>
       </c>
       <c r="K712" t="n">
-        <v>19.99999999999998</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L712" t="n">
         <v>19.54</v>
@@ -36889,7 +36911,7 @@
         <v>53.39999999999981</v>
       </c>
       <c r="K713" t="n">
-        <v>26.66666666666676</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L713" t="n">
         <v>19.56</v>
@@ -36940,7 +36962,7 @@
         <v>53.49999999999981</v>
       </c>
       <c r="K714" t="n">
-        <v>26.66666666666676</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L714" t="n">
         <v>19.58</v>
@@ -36991,7 +37013,7 @@
         <v>53.49999999999981</v>
       </c>
       <c r="K715" t="n">
-        <v>26.66666666666676</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L715" t="n">
         <v>19.6</v>
@@ -37042,7 +37064,7 @@
         <v>53.59999999999981</v>
       </c>
       <c r="K716" t="n">
-        <v>31.03448275862086</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L716" t="n">
         <v>19.61</v>
@@ -37093,7 +37115,7 @@
         <v>53.59999999999981</v>
       </c>
       <c r="K717" t="n">
-        <v>28.5714285714287</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L717" t="n">
         <v>19.62</v>
@@ -37144,7 +37166,7 @@
         <v>53.6999999999998</v>
       </c>
       <c r="K718" t="n">
-        <v>40.74074074074083</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L718" t="n">
         <v>19.65999999999999</v>
@@ -37195,7 +37217,7 @@
         <v>53.7999999999998</v>
       </c>
       <c r="K719" t="n">
-        <v>21.73913043478277</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L719" t="n">
         <v>19.68999999999999</v>
@@ -37348,7 +37370,7 @@
         <v>53.99999999999979</v>
       </c>
       <c r="K722" t="n">
-        <v>-11.11111111111122</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L722" t="n">
         <v>19.66999999999999</v>
@@ -37399,7 +37421,7 @@
         <v>53.99999999999979</v>
       </c>
       <c r="K723" t="n">
-        <v>0</v>
+        <v>-20.00000000000043</v>
       </c>
       <c r="L723" t="n">
         <v>19.64999999999999</v>
@@ -37450,7 +37472,7 @@
         <v>53.99999999999979</v>
       </c>
       <c r="K724" t="n">
-        <v>6.666666666666857</v>
+        <v>-20.00000000000043</v>
       </c>
       <c r="L724" t="n">
         <v>19.63999999999999</v>
@@ -37501,7 +37523,7 @@
         <v>53.99999999999979</v>
       </c>
       <c r="K725" t="n">
-        <v>6.666666666666857</v>
+        <v>0</v>
       </c>
       <c r="L725" t="n">
         <v>19.62999999999999</v>
@@ -37552,7 +37574,7 @@
         <v>53.99999999999979</v>
       </c>
       <c r="K726" t="n">
-        <v>6.666666666666857</v>
+        <v>0</v>
       </c>
       <c r="L726" t="n">
         <v>19.62999999999999</v>
@@ -37603,7 +37625,7 @@
         <v>54.09999999999979</v>
       </c>
       <c r="K727" t="n">
-        <v>0</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L727" t="n">
         <v>19.61999999999999</v>
@@ -37654,7 +37676,7 @@
         <v>54.29999999999978</v>
       </c>
       <c r="K728" t="n">
-        <v>0</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L728" t="n">
         <v>19.57999999999999</v>
@@ -37705,7 +37727,7 @@
         <v>54.59999999999978</v>
       </c>
       <c r="K729" t="n">
-        <v>15.78947368421075</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L729" t="n">
         <v>19.57999999999999</v>
@@ -37756,7 +37778,7 @@
         <v>54.79999999999978</v>
       </c>
       <c r="K730" t="n">
-        <v>0</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L730" t="n">
         <v>19.59</v>
@@ -37807,7 +37829,7 @@
         <v>54.89999999999978</v>
       </c>
       <c r="K731" t="n">
-        <v>12.50000000000017</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L731" t="n">
         <v>19.61</v>
@@ -37858,7 +37880,7 @@
         <v>54.99999999999978</v>
       </c>
       <c r="K732" t="n">
-        <v>17.64705882352972</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L732" t="n">
         <v>19.65</v>
@@ -37909,7 +37931,7 @@
         <v>54.99999999999978</v>
       </c>
       <c r="K733" t="n">
-        <v>12.50000000000017</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L733" t="n">
         <v>19.69</v>
@@ -37960,7 +37982,7 @@
         <v>55.19999999999978</v>
       </c>
       <c r="K734" t="n">
-        <v>29.41176470588292</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L734" t="n">
         <v>19.75</v>
@@ -38011,7 +38033,7 @@
         <v>55.29999999999978</v>
       </c>
       <c r="K735" t="n">
-        <v>33.33333333333399</v>
+        <v>53.8461538461542</v>
       </c>
       <c r="L735" t="n">
         <v>19.82</v>
@@ -38062,7 +38084,7 @@
         <v>55.29999999999978</v>
       </c>
       <c r="K736" t="n">
-        <v>41.17647058823604</v>
+        <v>66.66666666666737</v>
       </c>
       <c r="L736" t="n">
         <v>19.89</v>
@@ -38113,7 +38135,7 @@
         <v>55.39999999999978</v>
       </c>
       <c r="K737" t="n">
-        <v>33.33333333333379</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L737" t="n">
         <v>19.96</v>
@@ -38164,7 +38186,7 @@
         <v>55.39999999999978</v>
       </c>
       <c r="K738" t="n">
-        <v>29.4117647058828</v>
+        <v>75</v>
       </c>
       <c r="L738" t="n">
         <v>20.05</v>
@@ -38215,7 +38237,7 @@
         <v>55.59999999999978</v>
       </c>
       <c r="K739" t="n">
-        <v>44.44444444444471</v>
+        <v>75</v>
       </c>
       <c r="L739" t="n">
         <v>20.13</v>
@@ -38266,7 +38288,7 @@
         <v>55.59999999999978</v>
       </c>
       <c r="K740" t="n">
-        <v>41.17647058823552</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L740" t="n">
         <v>20.19</v>
@@ -38317,7 +38339,7 @@
         <v>55.69999999999978</v>
       </c>
       <c r="K741" t="n">
-        <v>33.33333333333373</v>
+        <v>42.85714285714322</v>
       </c>
       <c r="L741" t="n">
         <v>20.23</v>
@@ -38368,7 +38390,7 @@
         <v>55.89999999999978</v>
       </c>
       <c r="K742" t="n">
-        <v>26.31578947368433</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L742" t="n">
         <v>20.24</v>
@@ -38419,7 +38441,7 @@
         <v>55.89999999999978</v>
       </c>
       <c r="K743" t="n">
-        <v>26.31578947368433</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L743" t="n">
         <v>20.25</v>
@@ -38470,7 +38492,7 @@
         <v>55.89999999999978</v>
       </c>
       <c r="K744" t="n">
-        <v>26.31578947368433</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L744" t="n">
         <v>20.24</v>
@@ -38521,7 +38543,7 @@
         <v>55.89999999999978</v>
       </c>
       <c r="K745" t="n">
-        <v>26.31578947368433</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L745" t="n">
         <v>20.22</v>
@@ -38572,7 +38594,7 @@
         <v>55.99999999999977</v>
       </c>
       <c r="K746" t="n">
-        <v>30.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L746" t="n">
         <v>20.20999999999999</v>
@@ -38623,7 +38645,7 @@
         <v>55.99999999999977</v>
       </c>
       <c r="K747" t="n">
-        <v>36.84210526315816</v>
+        <v>0</v>
       </c>
       <c r="L747" t="n">
         <v>20.20999999999999</v>
@@ -38674,7 +38696,7 @@
         <v>55.99999999999977</v>
       </c>
       <c r="K748" t="n">
-        <v>52.9411764705885</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L748" t="n">
         <v>20.20999999999999</v>
@@ -38725,7 +38747,7 @@
         <v>56.09999999999977</v>
       </c>
       <c r="K749" t="n">
-        <v>46.66666666666684</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L749" t="n">
         <v>20.2</v>
@@ -38776,7 +38798,7 @@
         <v>56.29999999999977</v>
       </c>
       <c r="K750" t="n">
-        <v>46.66666666666706</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L750" t="n">
         <v>20.20999999999999</v>
@@ -38827,7 +38849,7 @@
         <v>56.29999999999977</v>
       </c>
       <c r="K751" t="n">
-        <v>42.85714285714322</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L751" t="n">
         <v>20.22999999999999</v>
@@ -38878,7 +38900,7 @@
         <v>56.39999999999977</v>
       </c>
       <c r="K752" t="n">
-        <v>28.57142857142864</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L752" t="n">
         <v>20.25999999999999</v>
@@ -38929,7 +38951,7 @@
         <v>56.59999999999977</v>
       </c>
       <c r="K753" t="n">
-        <v>12.50000000000006</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L753" t="n">
         <v>20.26999999999999</v>
@@ -38980,7 +39002,7 @@
         <v>56.59999999999977</v>
       </c>
       <c r="K754" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L754" t="n">
         <v>20.27999999999999</v>
@@ -39031,7 +39053,7 @@
         <v>56.69999999999977</v>
       </c>
       <c r="K755" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L755" t="n">
         <v>20.29999999999999</v>
@@ -39082,7 +39104,7 @@
         <v>56.69999999999977</v>
       </c>
       <c r="K756" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L756" t="n">
         <v>20.31</v>
@@ -39133,7 +39155,7 @@
         <v>56.89999999999976</v>
       </c>
       <c r="K757" t="n">
-        <v>20.00000000000024</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L757" t="n">
         <v>20.34</v>
@@ -39184,7 +39206,7 @@
         <v>56.99999999999977</v>
       </c>
       <c r="K758" t="n">
-        <v>25.00000000000033</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L758" t="n">
         <v>20.38</v>
@@ -39235,7 +39257,7 @@
         <v>57.09999999999977</v>
       </c>
       <c r="K759" t="n">
-        <v>6.666666666666825</v>
+        <v>0</v>
       </c>
       <c r="L759" t="n">
         <v>20.4</v>
@@ -39286,7 +39308,7 @@
         <v>57.29999999999977</v>
       </c>
       <c r="K760" t="n">
-        <v>17.64705882352957</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L760" t="n">
         <v>20.41999999999999</v>
@@ -39337,7 +39359,7 @@
         <v>57.49999999999977</v>
       </c>
       <c r="K761" t="n">
-        <v>33.33333333333326</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L761" t="n">
         <v>20.46</v>
@@ -39388,7 +39410,7 @@
         <v>57.59999999999977</v>
       </c>
       <c r="K762" t="n">
-        <v>52.94117647058828</v>
+        <v>79.9999999999995</v>
       </c>
       <c r="L762" t="n">
         <v>20.52</v>
@@ -39439,7 +39461,7 @@
         <v>57.89999999999978</v>
       </c>
       <c r="K763" t="n">
-        <v>29.99999999999989</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L763" t="n">
         <v>20.57</v>
@@ -39490,7 +39512,7 @@
         <v>58.09999999999978</v>
       </c>
       <c r="K764" t="n">
-        <v>36.36363636363619</v>
+        <v>42.85714285714231</v>
       </c>
       <c r="L764" t="n">
         <v>20.64</v>
@@ -39541,7 +39563,7 @@
         <v>58.19999999999978</v>
       </c>
       <c r="K765" t="n">
-        <v>30.43478260869566</v>
+        <v>33.33333333333318</v>
       </c>
       <c r="L765" t="n">
         <v>20.69</v>
@@ -39592,7 +39614,7 @@
         <v>58.69999999999978</v>
       </c>
       <c r="K766" t="n">
-        <v>3.703703703703753</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L766" t="n">
         <v>20.69</v>
@@ -39643,7 +39665,7 @@
         <v>58.89999999999978</v>
       </c>
       <c r="K767" t="n">
-        <v>10.3448275862069</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L767" t="n">
         <v>20.69</v>
@@ -39694,7 +39716,7 @@
         <v>58.99999999999978</v>
       </c>
       <c r="K768" t="n">
-        <v>13.33333333333337</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L768" t="n">
         <v>20.69</v>
@@ -39745,7 +39767,7 @@
         <v>58.99999999999978</v>
       </c>
       <c r="K769" t="n">
-        <v>10.3448275862069</v>
+        <v>-5.882352941176311</v>
       </c>
       <c r="L769" t="n">
         <v>20.7</v>
@@ -39796,7 +39818,7 @@
         <v>59.09999999999978</v>
       </c>
       <c r="K770" t="n">
-        <v>7.142857142857088</v>
+        <v>-12.49999999999989</v>
       </c>
       <c r="L770" t="n">
         <v>20.7</v>
@@ -39847,7 +39869,7 @@
         <v>59.39999999999978</v>
       </c>
       <c r="K771" t="n">
-        <v>16.12903225806447</v>
+        <v>0</v>
       </c>
       <c r="L771" t="n">
         <v>20.71</v>
@@ -39898,7 +39920,7 @@
         <v>59.39999999999978</v>
       </c>
       <c r="K772" t="n">
-        <v>20</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L772" t="n">
         <v>20.71</v>
@@ -39949,7 +39971,7 @@
         <v>59.69999999999978</v>
       </c>
       <c r="K773" t="n">
-        <v>35.48387096774188</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L773" t="n">
         <v>20.77</v>
@@ -40000,7 +40022,7 @@
         <v>59.79999999999977</v>
       </c>
       <c r="K774" t="n">
-        <v>37.49999999999994</v>
+        <v>37.5</v>
       </c>
       <c r="L774" t="n">
         <v>20.82</v>
@@ -40051,7 +40073,7 @@
         <v>59.99999999999977</v>
       </c>
       <c r="K775" t="n">
-        <v>27.27272727272719</v>
+        <v>69.23076923076927</v>
       </c>
       <c r="L775" t="n">
         <v>20.86</v>
@@ -40102,7 +40124,7 @@
         <v>60.39999999999978</v>
       </c>
       <c r="K776" t="n">
-        <v>35.13513513513506</v>
+        <v>73.33333333333343</v>
       </c>
       <c r="L776" t="n">
         <v>20.98999999999999</v>
@@ -40153,7 +40175,7 @@
         <v>60.59999999999978</v>
       </c>
       <c r="K777" t="n">
-        <v>35.13513513513499</v>
+        <v>74.99999999999989</v>
       </c>
       <c r="L777" t="n">
         <v>21.12</v>
@@ -40204,7 +40226,7 @@
         <v>60.79999999999978</v>
       </c>
       <c r="K778" t="n">
-        <v>26.31578947368408</v>
+        <v>55.55555555555542</v>
       </c>
       <c r="L778" t="n">
         <v>21.22</v>
@@ -40255,7 +40277,7 @@
         <v>60.99999999999979</v>
       </c>
       <c r="K779" t="n">
-        <v>23.07692307692292</v>
+        <v>36.84210526315775</v>
       </c>
       <c r="L779" t="n">
         <v>21.3</v>
@@ -40306,7 +40328,7 @@
         <v>60.99999999999979</v>
       </c>
       <c r="K780" t="n">
-        <v>18.91891891891881</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L780" t="n">
         <v>21.37</v>
@@ -40357,7 +40379,7 @@
         <v>61.09999999999979</v>
       </c>
       <c r="K781" t="n">
-        <v>16.66666666666663</v>
+        <v>29.41176470588218</v>
       </c>
       <c r="L781" t="n">
         <v>21.42</v>
@@ -40408,7 +40430,7 @@
         <v>61.09999999999979</v>
       </c>
       <c r="K782" t="n">
-        <v>14.28571428571423</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L782" t="n">
         <v>21.47</v>
@@ -40459,7 +40481,7 @@
         <v>61.19999999999979</v>
       </c>
       <c r="K783" t="n">
-        <v>21.21212121212112</v>
+        <v>0</v>
       </c>
       <c r="L783" t="n">
         <v>21.48</v>
@@ -40510,7 +40532,7 @@
         <v>61.19999999999979</v>
       </c>
       <c r="K784" t="n">
-        <v>16.12903225806447</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L784" t="n">
         <v>21.48</v>
@@ -40561,7 +40583,7 @@
         <v>61.29999999999978</v>
       </c>
       <c r="K785" t="n">
-        <v>16.12903225806447</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L785" t="n">
         <v>21.49</v>
@@ -40612,7 +40634,7 @@
         <v>61.29999999999978</v>
       </c>
       <c r="K786" t="n">
-        <v>38.46153846153834</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L786" t="n">
         <v>21.46</v>
@@ -40663,7 +40685,7 @@
         <v>61.29999999999978</v>
       </c>
       <c r="K787" t="n">
-        <v>33.33333333333328</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L787" t="n">
         <v>21.41</v>
@@ -40714,7 +40736,7 @@
         <v>61.29999999999978</v>
       </c>
       <c r="K788" t="n">
-        <v>30.43478260869556</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L788" t="n">
         <v>21.38</v>
@@ -40765,7 +40787,7 @@
         <v>61.39999999999979</v>
       </c>
       <c r="K789" t="n">
-        <v>24.99999999999985</v>
+        <v>-50</v>
       </c>
       <c r="L789" t="n">
         <v>21.36</v>
@@ -40816,7 +40838,7 @@
         <v>61.69999999999979</v>
       </c>
       <c r="K790" t="n">
-        <v>7.69230769230764</v>
+        <v>-100</v>
       </c>
       <c r="L790" t="n">
         <v>21.31</v>
@@ -40867,7 +40889,7 @@
         <v>61.79999999999979</v>
       </c>
       <c r="K791" t="n">
-        <v>0</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L791" t="n">
         <v>21.26</v>
@@ -40918,7 +40940,7 @@
         <v>61.79999999999979</v>
       </c>
       <c r="K792" t="n">
-        <v>0</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L792" t="n">
         <v>21.21</v>
@@ -40969,7 +40991,7 @@
         <v>61.89999999999979</v>
       </c>
       <c r="K793" t="n">
-        <v>-18.18181818181814</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L793" t="n">
         <v>21.16</v>
@@ -41020,7 +41042,7 @@
         <v>61.99999999999979</v>
       </c>
       <c r="K794" t="n">
-        <v>-18.18181818181792</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L794" t="n">
         <v>21.12</v>
@@ -41071,7 +41093,7 @@
         <v>62.0999999999998</v>
       </c>
       <c r="K795" t="n">
-        <v>-14.28571428571417</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L795" t="n">
         <v>21.08</v>
@@ -41122,7 +41144,7 @@
         <v>62.0999999999998</v>
       </c>
       <c r="K796" t="n">
-        <v>-41.17647058823505</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L796" t="n">
         <v>21.04</v>
@@ -41173,7 +41195,7 @@
         <v>62.2999999999998</v>
       </c>
       <c r="K797" t="n">
-        <v>-41.17647058823484</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L797" t="n">
         <v>21.02</v>
@@ -41224,7 +41246,7 @@
         <v>62.2999999999998</v>
       </c>
       <c r="K798" t="n">
-        <v>-33.33333333333302</v>
+        <v>-11.11111111111072</v>
       </c>
       <c r="L798" t="n">
         <v>21</v>
@@ -41275,7 +41297,7 @@
         <v>62.39999999999979</v>
       </c>
       <c r="K799" t="n">
-        <v>-14.28571428571418</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L799" t="n">
         <v>21</v>
@@ -41326,7 +41348,7 @@
         <v>62.49999999999979</v>
       </c>
       <c r="K800" t="n">
-        <v>-19.99999999999981</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L800" t="n">
         <v>21.02</v>
@@ -41377,7 +41399,7 @@
         <v>62.49999999999979</v>
       </c>
       <c r="K801" t="n">
-        <v>-28.5714285714285</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L801" t="n">
         <v>21.02999999999999</v>
@@ -41428,7 +41450,7 @@
         <v>62.59999999999978</v>
       </c>
       <c r="K802" t="n">
-        <v>-20.00000000000014</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L802" t="n">
         <v>21.04999999999999</v>
@@ -41479,7 +41501,7 @@
         <v>62.69999999999978</v>
       </c>
       <c r="K803" t="n">
-        <v>-6.666666666666556</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L803" t="n">
         <v>21.09</v>
@@ -41530,7 +41552,7 @@
         <v>62.69999999999978</v>
       </c>
       <c r="K804" t="n">
-        <v>-6.666666666666556</v>
+        <v>66.66666666666843</v>
       </c>
       <c r="L804" t="n">
         <v>21.12</v>
@@ -41581,7 +41603,7 @@
         <v>62.79999999999978</v>
       </c>
       <c r="K805" t="n">
-        <v>-6.666666666666761</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L805" t="n">
         <v>21.15</v>
@@ -41632,7 +41654,7 @@
         <v>62.89999999999978</v>
       </c>
       <c r="K806" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L806" t="n">
         <v>21.16999999999999</v>
@@ -41683,7 +41705,7 @@
         <v>62.89999999999978</v>
       </c>
       <c r="K807" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L807" t="n">
         <v>21.16999999999999</v>

--- a/BackTest/2019-11-02 BackTest DVP.xlsx
+++ b/BackTest/2019-11-02 BackTest DVP.xlsx
@@ -451,20 +451,14 @@
         <v>16.95499999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>16.97666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>16.99499999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>18</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -581,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -620,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -652,20 +626,14 @@
         <v>17.05666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>18</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -693,20 +661,14 @@
         <v>17.075</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -734,20 +696,14 @@
         <v>17.09666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -775,20 +731,14 @@
         <v>17.12166666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>18</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -823,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -862,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -901,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -940,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -979,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1018,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1057,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1096,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1135,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1174,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1213,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1252,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1291,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1330,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1369,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1447,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1486,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1564,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1603,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1642,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1681,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1720,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1759,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1798,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1876,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1915,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1954,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1993,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2032,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2071,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2110,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2149,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2227,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2305,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2344,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2383,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2422,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2461,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2500,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2539,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2578,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2617,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2656,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2734,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2773,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2851,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2890,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2929,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2968,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3007,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3046,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3085,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3163,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3202,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3234,16 +2936,18 @@
         <v>18.14999999999998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -3273,12 +2977,14 @@
         <v>18.14666666666664</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3312,12 +3018,14 @@
         <v>18.14499999999998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>17.8</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3351,12 +3059,14 @@
         <v>18.14499999999998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3390,12 +3100,14 @@
         <v>18.14333333333331</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>18</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3429,12 +3141,14 @@
         <v>18.13666666666665</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>18</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3468,12 +3182,14 @@
         <v>18.12999999999998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3507,12 +3223,14 @@
         <v>18.12333333333332</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3546,12 +3264,14 @@
         <v>18.11666666666665</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>18</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3585,12 +3305,14 @@
         <v>18.11166666666665</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3624,12 +3346,14 @@
         <v>18.10333333333332</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3663,12 +3387,14 @@
         <v>18.09833333333332</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>17.8</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3702,12 +3428,14 @@
         <v>18.09333333333332</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3780,12 +3508,14 @@
         <v>18.08833333333332</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3858,12 +3588,14 @@
         <v>18.08166666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3897,12 +3629,14 @@
         <v>18.07333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -12984,12 +12718,14 @@
         <v>18.56499999999998</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>18.4</v>
+      </c>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -14625,16 +14361,18 @@
         <v>0</v>
       </c>
       <c r="I365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M365" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -14662,11 +14400,15 @@
         <v>0</v>
       </c>
       <c r="I366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14697,11 +14439,15 @@
         <v>0</v>
       </c>
       <c r="I367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14736,7 +14482,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14771,7 +14521,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14806,7 +14560,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14841,7 +14599,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +14638,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14911,7 +14677,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14946,7 +14716,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14981,7 +14755,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -15016,7 +14794,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -15051,7 +14833,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -15086,7 +14872,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -15121,7 +14911,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -15156,7 +14950,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -15191,7 +14989,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -15226,7 +15028,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15261,7 +15067,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15296,7 +15106,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15331,7 +15145,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15366,7 +15184,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15401,7 +15223,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15436,7 +15262,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15471,7 +15301,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15506,7 +15340,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15541,7 +15379,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15576,7 +15418,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15611,7 +15457,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15646,7 +15496,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15681,7 +15535,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15716,7 +15574,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15751,7 +15613,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15786,7 +15652,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15821,7 +15691,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15856,7 +15730,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15891,7 +15769,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15926,7 +15808,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15961,7 +15847,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15996,7 +15886,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +15925,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -16066,7 +15964,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16101,7 +16003,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16136,7 +16042,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16171,7 +16081,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16206,7 +16120,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16241,7 +16159,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16276,7 +16198,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16311,7 +16237,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16346,7 +16276,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16381,7 +16315,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16416,7 +16354,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16451,7 +16393,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16486,7 +16432,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16521,7 +16471,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16556,7 +16510,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16591,7 +16549,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16626,7 +16588,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16661,7 +16627,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16696,7 +16666,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16731,7 +16705,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16766,7 +16744,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16801,7 +16783,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16836,7 +16822,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16871,7 +16861,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16906,7 +16900,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16941,7 +16939,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16976,7 +16978,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17011,7 +17017,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17046,7 +17056,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17081,7 +17095,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17116,7 +17134,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17151,7 +17173,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +17212,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17221,7 +17251,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17256,7 +17290,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17291,7 +17329,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17326,7 +17368,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17361,7 +17407,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17396,7 +17446,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17431,7 +17485,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17466,7 +17524,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17501,7 +17563,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17536,7 +17602,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17571,7 +17641,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17606,7 +17680,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17641,7 +17719,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17676,7 +17758,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17711,7 +17797,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17746,7 +17836,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17781,7 +17875,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17816,7 +17914,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17851,7 +17953,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17886,7 +17992,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17921,7 +18031,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17956,7 +18070,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17991,7 +18109,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18026,7 +18148,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18061,7 +18187,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18096,7 +18226,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18131,7 +18265,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18166,7 +18304,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18201,7 +18343,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18236,7 +18382,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18271,7 +18421,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18306,7 +18460,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +18499,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18376,7 +18538,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18411,7 +18577,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18446,7 +18616,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18481,7 +18655,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18516,7 +18694,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18551,7 +18733,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18586,7 +18772,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18621,7 +18811,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18656,7 +18850,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18691,7 +18889,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18726,7 +18928,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18761,7 +18967,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18796,7 +19006,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18831,7 +19045,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18866,7 +19084,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18901,7 +19123,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18936,7 +19162,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18971,7 +19201,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -19006,7 +19240,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -19041,7 +19279,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19076,7 +19318,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19111,7 +19357,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19146,7 +19396,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19181,7 +19435,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19216,7 +19474,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19251,7 +19513,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19286,7 +19552,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19321,7 +19591,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19356,7 +19630,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19391,7 +19669,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19426,7 +19708,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19461,7 +19747,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19786,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19531,7 +19825,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19566,7 +19864,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19601,7 +19903,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19636,7 +19942,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19671,7 +19981,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19706,7 +20020,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19741,7 +20059,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19776,7 +20098,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19811,7 +20137,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19846,7 +20176,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19881,7 +20215,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19916,7 +20254,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19951,7 +20293,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19986,7 +20332,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -20021,7 +20371,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20056,7 +20410,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20091,7 +20449,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20126,7 +20488,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20161,7 +20527,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20196,7 +20566,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20231,7 +20605,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20266,7 +20644,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20301,7 +20683,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20336,7 +20722,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20371,7 +20761,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20406,7 +20800,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20441,7 +20839,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20476,7 +20878,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20511,7 +20917,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20546,7 +20956,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20581,7 +20995,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20616,7 +21034,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +21073,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20686,7 +21112,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20721,7 +21151,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20756,7 +21190,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20791,7 +21229,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20826,7 +21268,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20861,7 +21307,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20896,7 +21346,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20931,7 +21385,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20966,7 +21424,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21001,7 +21463,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21036,7 +21502,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21071,7 +21541,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21106,7 +21580,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21141,7 +21619,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21176,7 +21658,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21211,7 +21697,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21246,7 +21736,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21281,7 +21775,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21316,7 +21814,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21351,7 +21853,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21386,7 +21892,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21421,7 +21931,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21456,7 +21970,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21491,7 +22009,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21526,7 +22048,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21561,7 +22087,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21596,7 +22126,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21631,7 +22165,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21666,7 +22204,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21701,7 +22243,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21736,7 +22282,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21771,7 +22321,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21806,7 +22360,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21841,7 +22399,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21876,7 +22438,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21911,7 +22477,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21946,7 +22516,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21981,7 +22555,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -22016,7 +22594,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22051,7 +22633,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22086,7 +22672,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22121,7 +22711,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22156,7 +22750,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22191,7 +22789,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22226,7 +22828,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22261,7 +22867,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22296,7 +22906,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22331,7 +22945,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22366,7 +22984,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22401,7 +23023,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22436,7 +23062,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22471,7 +23101,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22506,7 +23140,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22541,7 +23179,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22576,7 +23218,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22611,7 +23257,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22646,7 +23296,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22681,7 +23335,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22716,7 +23374,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22751,7 +23413,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22786,7 +23452,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22821,7 +23491,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22856,7 +23530,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22891,7 +23569,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22926,7 +23608,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22961,7 +23647,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22996,7 +23686,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -23031,7 +23725,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -23066,7 +23764,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -23101,7 +23803,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23136,7 +23842,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -23171,7 +23881,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -23206,7 +23920,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23241,7 +23959,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23276,7 +23998,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23311,7 +24037,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23346,7 +24076,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23381,7 +24115,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23416,7 +24154,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23451,7 +24193,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23486,7 +24232,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23521,7 +24271,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23556,7 +24310,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23591,7 +24349,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23626,7 +24388,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23661,7 +24427,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23696,7 +24466,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23731,7 +24505,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23766,7 +24544,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23801,7 +24583,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23836,7 +24622,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23871,7 +24661,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23906,7 +24700,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23941,7 +24739,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23976,7 +24778,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -24011,7 +24817,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -24046,7 +24856,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -24081,7 +24895,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24934,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -24151,7 +24973,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -24186,7 +25012,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -24221,7 +25051,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -24256,7 +25090,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -24291,7 +25129,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -24326,7 +25168,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -24361,7 +25207,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -24396,7 +25246,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -24431,7 +25285,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -24466,7 +25324,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -24501,7 +25363,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -24536,7 +25402,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -24571,7 +25441,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -24606,7 +25480,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -24641,7 +25519,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -24676,7 +25558,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -24711,7 +25597,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -24746,7 +25636,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -24781,7 +25675,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -24816,7 +25714,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -24851,7 +25753,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24886,7 +25792,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24921,7 +25831,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24956,7 +25870,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24991,7 +25909,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -25026,7 +25948,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -25061,7 +25987,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -25096,7 +26026,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -25131,7 +26065,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -25166,7 +26104,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -25201,7 +26143,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -25236,7 +26182,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -25271,7 +26221,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -25306,7 +26260,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -25341,7 +26299,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -25376,7 +26338,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -25411,7 +26377,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25446,7 +26416,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25481,7 +26455,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25516,7 +26494,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25551,7 +26533,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25586,7 +26572,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25621,7 +26611,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25656,7 +26650,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -25691,7 +26689,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -25726,7 +26728,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -25761,7 +26767,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -25796,7 +26806,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -25831,7 +26845,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -25866,7 +26884,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25901,7 +26923,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25936,7 +26962,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25971,7 +27001,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -26006,7 +27040,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -26041,7 +27079,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -26076,7 +27118,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -26111,7 +27157,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -26146,7 +27196,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -26181,7 +27235,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -26216,7 +27274,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -26251,7 +27313,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -26286,7 +27352,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -26321,7 +27391,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -26356,7 +27430,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -26391,7 +27469,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +27508,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -26461,7 +27547,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -26496,7 +27586,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -26531,7 +27625,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -26566,7 +27664,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -26601,7 +27703,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -26636,7 +27742,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -26671,7 +27781,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -26706,7 +27820,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -26741,7 +27859,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -26776,7 +27898,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -26811,7 +27937,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -26846,7 +27976,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -26881,7 +28015,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -26916,7 +28054,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -26951,7 +28093,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -26986,7 +28132,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -27021,7 +28171,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -27056,7 +28210,11 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -27091,7 +28249,11 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -27126,7 +28288,11 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -27161,7 +28327,11 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -27196,7 +28366,11 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -27231,7 +28405,11 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -27266,7 +28444,11 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -27301,7 +28483,11 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -27336,7 +28522,11 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -27371,7 +28561,11 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -27406,7 +28600,11 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -27441,7 +28639,11 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -27476,7 +28678,11 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -27511,7 +28717,11 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -27546,7 +28756,11 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +28795,11 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -27616,7 +28834,11 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -27651,7 +28873,11 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -27686,7 +28912,11 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -27721,7 +28951,11 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -27756,7 +28990,11 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -27791,7 +29029,11 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -27826,7 +29068,11 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -27861,7 +29107,11 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -27896,7 +29146,11 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -27931,7 +29185,11 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -27966,7 +29224,11 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -28001,7 +29263,11 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -28036,7 +29302,11 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -28071,7 +29341,11 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -28106,7 +29380,11 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -28141,7 +29419,11 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -28176,7 +29458,11 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -28211,7 +29497,11 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -28246,7 +29536,11 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -28281,7 +29575,11 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -28316,7 +29614,11 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -28351,7 +29653,11 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -28386,7 +29692,11 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -28421,7 +29731,11 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -28456,7 +29770,11 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -28491,7 +29809,11 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -28526,7 +29848,11 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -28561,7 +29887,11 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -28592,14 +29922,16 @@
         <v>0</v>
       </c>
       <c r="I764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
-      <c r="M764" t="n">
-        <v>1</v>
-      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
